--- a/matching/src/planilhas/telefonia-smartphone-classificados-ewerton.xlsx
+++ b/matching/src/planilhas/telefonia-smartphone-classificados-ewerton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="5340" windowWidth="21630" windowHeight="5385"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="telefonia-smartphones-marcados-" sheetId="1" r:id="rId1"/>
@@ -28,25 +28,25 @@
     <t>Lg</t>
   </si>
   <si>
-    <t>LG OPTIMUS L1 II TRI</t>
+    <t>OPTIMUS L1 II TRI</t>
   </si>
   <si>
     <t>Smartphone LG G3 Beat Dual D724 Dual Chip Desbloqueado Android 4.4 Tela 5 8GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG G3 BEAT DUAL</t>
+    <t>G3 BEAT DUAL</t>
   </si>
   <si>
     <t>Smartphone LG Triple L20 D107 Android 4.4 Tela 3 4GB 3G Wi-Fi Camera 2MP - Preto e Grafite</t>
   </si>
   <si>
-    <t>LG TRIPLE L20</t>
+    <t>TRIPLE L20</t>
   </si>
   <si>
     <t>Smartphone LG G4 Desbloqueado Android 5.0 Tela 5.5 32GB 4G Wi-Fi Camera 16MP Hexa Core - Branco</t>
   </si>
   <si>
-    <t>LG G4</t>
+    <t>G4</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia E3 Dual Chip Desbloqueado Android 4.4 Tela 4.5 4GB Camera de 5MP GPS - Branco</t>
@@ -55,7 +55,7 @@
     <t>Sony</t>
   </si>
   <si>
-    <t>SONY XPERIA E3</t>
+    <t>XPERIA E3</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 800 Desbloqueado Claro - Preto GSM Tela Curva 3.7 AMOLED Processador 1.4GHz 3G Wi-Fi Camera 8 MP com Dual-LED Flash e lente Carl Zeiss Memoria interna de 16GB e gratis 7GB de armazenamento no Sky Drive</t>
@@ -64,19 +64,19 @@
     <t>Nokia</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 800</t>
+    <t>LUMIA 800</t>
   </si>
   <si>
     <t>Smartphone Nokia C5-03 Desbloqueado Claro, Cinza / Prata, Tela 3.2, Camera 5.0MP, 3G, Wi-Fi, Memoria Interna 40MB e Cartao 2GB</t>
   </si>
   <si>
-    <t>NOKIA C5</t>
+    <t>C5</t>
   </si>
   <si>
     <t>Smartphone LG D340 L70 Tri Chip Android 4.4 KitKat Tela 4.5 4GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG L70</t>
+    <t>L70</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto X 2a Geracao Desbloqueado Android 4.4 Tela 5.2 32GB 4G Wi-Fi Camera 13MP GPS - Branco Bambu</t>
@@ -85,7 +85,7 @@
     <t>Motorola</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO X</t>
+    <t>MOTO X</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Gran 2 Duos Dual Chip Desbloqueado Android 4.3 Tela 5.3 Camera 8MP TV Digital - Preto</t>
@@ -94,37 +94,37 @@
     <t>Samsung</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN 2 DUOS</t>
+    <t>GALAXY GRAN 2 DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Core Plus Dual Chip Desbloqueado Android 4.3 Tela 4.3 Preto 3G Wi-Fi Camera 5MPx TV Digital - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY CORE PLUS</t>
+    <t>GALAXY CORE PLUS</t>
   </si>
   <si>
     <t>Smartphone Motorola RAZR i Android 4.0 Tela 4.3 8GB 3G Wi-Fi Camera de 8MP GPS - Branco</t>
   </si>
   <si>
-    <t>MOTOROLA RAZR I</t>
+    <t>RAZR I</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L3 Preto - GSM, Android 2.3, Processador 600 Mhz, 3G, Wi-Fi, Camera 3.2MP, Filmadora, Bluetooth 2.1, MP3 Player e Radio FM</t>
   </si>
   <si>
-    <t>LG OPTIMUS L3</t>
+    <t>OPTIMUS L3</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L5 E612 Preto Desbloqueado Claro - Android 4.0, Super bateria, Touchscreen 4, Camera 5.0MP, 3G, Wi-Fi e Memoria interna de 4GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS L5</t>
+    <t>OPTIMUS L5</t>
   </si>
   <si>
     <t>Smartphone LG G Flex Desbloqueado Android 4.2 Tela 6 32GB 4G Wi-Fi Camera 13MP - Preto</t>
   </si>
   <si>
-    <t>LG G FLEX</t>
+    <t>G FLEX</t>
   </si>
   <si>
     <t>Smartphone Asus ZenFone 6 Dual Chip Desbloqueado Android 4.4 Tela 6 16GB 3G Wi-Fi Camera 13MP - Preto</t>
@@ -133,31 +133,31 @@
     <t>Asus</t>
   </si>
   <si>
-    <t>ASUS ZENFONE 6</t>
+    <t>ZENFONE 6</t>
   </si>
   <si>
     <t>Smartphone LG Optimus me P350 Desbloqueado Claro Android 2.2 3G WiFi Touch GPS Cam 3MP 2GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS ME</t>
+    <t>OPTIMUS ME</t>
   </si>
   <si>
     <t>Smartphone LG C570 Cinza - GSM c/ Tecnologia 3G, Wi-Fi, Teclado QWERTY, GPS, Camera 2MP c/ Zoom 3x, Filmadora, MP3 Player, Radio FM, Bluetooth, Fone, Cabo de Dados e Cartao 2GB</t>
   </si>
   <si>
-    <t>LG CINZA</t>
+    <t>CINZA</t>
   </si>
   <si>
     <t>Smartphone Dual Chip LG Optimus L5 Dual Preto Android 4.0 Desbloqueado Tim - Camera 5.0MP 3G Wi-Fi Memoria Interna 4GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS L5 DUAL</t>
+    <t>OPTIMUS L5 DUAL</t>
   </si>
   <si>
     <t>Smartphone LG L9 Desbloqueado Tim Preto - Android 4.0 - Processador Dual Core 1GHz, Tela 4.7, Camera 5.0MP, 3G, Wi-Fi, Memoria Interna 4GB e Cartao 4GB</t>
   </si>
   <si>
-    <t>LG L9</t>
+    <t>L9</t>
   </si>
   <si>
     <t>Smartphone LG L9 Desbloqueado Tim Branco - Android 4.0 - Processador Dual Core 1GHz, Tela 4.7, Camera 5.0MP, 3G, Wi-Fi, Memoria Interna 4GB e Cartao 4GB</t>
@@ -166,25 +166,25 @@
     <t>Smartphone Samsung Galaxy Gran Prime Duos Chip Desbloqueado Android 4.4 Kit Kat Tela 5 8GB 3G Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN PRIME DUOS CHIP</t>
+    <t>GALAXY GRAN PRIME DUOS CHIP</t>
   </si>
   <si>
     <t>Smartphone Motorola Novo Moto X Desbloqueado Android 4.4 Tela 5.2 32GB 4G Wi-Fi Camera 13MP GPS - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA NOVO MOTO X</t>
+    <t>NOVO MOTO X</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z1 Desbloqueado Preto Android 4.2 4G Camera 20MP 16GB</t>
   </si>
   <si>
-    <t>SONY XPERIA Z1</t>
+    <t>XPERIA Z1</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L3 Dual E405 Desbloqueado Oi  Rosa GSM  Dual Chip  Android 2.3 Processador  600 Mhz  3G  Wi-Fi Camera 3.2MP Filmadora Bluetooth 2.1 MP3 Player e Radio FM</t>
   </si>
   <si>
-    <t>LG OPTIMUS L3 DUAL</t>
+    <t>OPTIMUS L3 DUAL</t>
   </si>
   <si>
     <t>Smartphone Blu Studio 5.0 D530 Anatel/Generic Dual Sim 3G Preto</t>
@@ -193,25 +193,25 @@
     <t>Blu</t>
   </si>
   <si>
-    <t>BLU STUDIO 5.0 ANATEL GENERIC</t>
+    <t>STUDIO 5.0 ANATEL GENERIC</t>
   </si>
   <si>
     <t>Smartphone Nokia E63 Azul - GSM c/ Tecnologia 3G, Wi-Fi, Teclado Qwerty, Camera 2.0MP c/ zoom e Flash LED, Filmadora, MP3 Player, Radio FM, Bluetooth Estereo 2.0, Viva-Voz e Fone</t>
   </si>
   <si>
-    <t>NOKIA E63</t>
+    <t>E63</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 520 Desbloqueado Windows Phone 8 Tela 4 8GB 3G Wi-Fi Camera 5MP GPS - Branco</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 520</t>
+    <t>LUMIA 520</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L7 II Dual Chip Desbloqueado Android 4.1 Tela 4.3 4GB 3G Wi-Fi Camera 8MP - Branco + Cartao de Memoria 4GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS L7 II</t>
+    <t>OPTIMUS L7 II</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L3 E405 Desbloqueado Tim, Branco, Dual Chip - Android 2.3, Processador 600 Mhz, Tela 3.2, Camera 3.2MP, 3G, Wi-Fi e Memoria Interna 2GB</t>
@@ -220,19 +220,19 @@
     <t>Smartphone Sony Xperia E1 Desbloqueado Vivo Android 4.3 Tela 4 4GB 3G Wi-Fi Camera 3MP - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA E1</t>
+    <t>XPERIA E1</t>
   </si>
   <si>
     <t>Smartphone LG L40 D180 TV Tri Chip Desbloqueado Android 4.4 Tela 3.5 4GB 3G Wi-Fi Camera 3MP TV Digital - Branco</t>
   </si>
   <si>
-    <t>LG L40 TV</t>
+    <t>L40 TV</t>
   </si>
   <si>
     <t>Smartphone Motorola Motosmart Me XT303. Desbloqueado. GSM. Preto - Android 2.3. Touchscreen 3.2". Camera de 2MP. 3G. Wi Fi. Bluetooth. GPS. MP3 Player. Radio FM. Cartao de Memoria de 4GB</t>
   </si>
   <si>
-    <t>MOTOROLA MOTOSMART ME</t>
+    <t>MOTOSMART ME</t>
   </si>
   <si>
     <t>Smartphone LG E400f Optimus L3 Desbloqueado Tim Preto - GSM Android 2.3, Processador 600 Mhz 3G Wi-Fi Camera 3.2MP Filmadora Bluetooth 2.1 MP3 Player Radio FM Memoria interna de 2 GB</t>
@@ -241,61 +241,61 @@
     <t>Smartphone LG P500 Desbloqueado Claro Preto - GSM com Sistema Operacional Android 2.2, Tecnologia 3G, Wi-Fi, GPS, TouchScreen c/ Tela de 3.2", Camera 3.2MP, Filmadora, MP3 Player, Radio FM, Bluetooth, Fone, Cabo de Dados e Cartao de 2GB</t>
   </si>
   <si>
-    <t>LG P500</t>
+    <t>P500</t>
   </si>
   <si>
     <t>Smartphone Nokia E5. Desbloqueado Vivo. Prata. Tela 2.36". Camera 5MP. 3G. Wi Fi. Memoria Interna 250MB e Cartao 2GB</t>
   </si>
   <si>
-    <t>NOKIA E5</t>
+    <t>E5</t>
   </si>
   <si>
     <t>Smartphone Lg Leon Tv H326tv Tela De 4-5 8gb Dual Chip Quad Core Android 5-0 C-Mera 8mp Tit-Nio</t>
   </si>
   <si>
-    <t>LG LEON TV TELA DE 4-5</t>
+    <t>LEON TV TELA DE 4-5</t>
   </si>
   <si>
     <t>Smartphone LG L80 Dual Chip Desbloqueado Tim Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP TV Digital Preto</t>
   </si>
   <si>
-    <t>LG L80</t>
+    <t>L80</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S4 4G I9515 16GB Desbloqueado</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S4</t>
+    <t>GALAXY S4</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S5 Mini Duos Dual Chip Desbloqueado Tim Android 4.4 Tela 4.5" 16GB 3G Wi-Fi Camera 8MP GPS - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S5 MINI DUOS</t>
+    <t>GALAXY S5 MINI DUOS</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L1 II E410 Desbloqueado Claro Android 4.1 Tela 3" 4GB 3G Wi-Fi Camera 2MP - Branco</t>
   </si>
   <si>
-    <t>LG OPTIMUS L1 II</t>
+    <t>OPTIMUS L1 II</t>
   </si>
   <si>
     <t>Smartphone LG Pro Lite, Desbloqueado, Branco, Android 4,1,3G, Wi-Fi, Camera 8 MP, Memoria Interna 8GB, GPS</t>
   </si>
   <si>
-    <t>LG PRO LITE</t>
+    <t>PRO LITE</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia ZQ Desbloqueado Oi Preto - Android 4.1 4G Wi-Fi Camera 13MP Memoria Interna 16GB GPS NFC</t>
   </si>
   <si>
-    <t>SONY XPERIA ZQ</t>
+    <t>XPERIA ZQ</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S II Desbloqueado Vivo - Android 2.3 Dual Core Cam 8MP 3G  Wi Fi 16GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S II</t>
+    <t>GALAXY S II</t>
   </si>
   <si>
     <t>Smartphone LG L9 Desbloqueado Tim Preto - Android 4.0 - Tela 4.7" Camera 5.0MP 3G Wi-Fi</t>
@@ -304,13 +304,13 @@
     <t>Smartphone Sony Xperia SP Desbloqueado Claro Branco Android 4.1 4G Camera 8MP Memoria Interna 8GB GPS NFC</t>
   </si>
   <si>
-    <t>SONY XPERIA SP</t>
+    <t>XPERIA SP</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S4 Zoom Branco Android 4.2 3G Desbloqueado - Camera 16MP Camera Wi-Fi GPS Memoria 8GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S4 ZOOM</t>
+    <t>GALAXY S4 ZOOM</t>
   </si>
   <si>
     <t>Smartphone LG E400f Optimus L3  Desbloqueado Tim Branco - GSM  Android 2.3, Processador 600 Mhz  3G Wi-Fi  Camera 3.2MP Filmadora Bluetooth 2.1 MP3 Player Radio FM Memoria interna de 2 GB</t>
@@ -322,7 +322,7 @@
     <t>Smartphone LG P880 Optimus Preto 3G Desbloqueado Camera 8MP Wi-Fi Memoria Interna de 16 GB Expansivel ate 32 GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS</t>
+    <t>OPTIMUS</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L5 Dual Desbloqueado Rosa. Dual Chip. Android 4.0. Tela 4". Camera 5.0MP. 3G. Wi Fi. Memoria Interna 4GB</t>
@@ -334,7 +334,7 @@
     <t>Smartphone Motorola Spice Desbloqueado Oi Preto - Android 2.1, Tela 3", Camera 3.2MP, 3G, Wi-Fi e Cartao 2GB</t>
   </si>
   <si>
-    <t>MOTOROLA SPICE</t>
+    <t>SPICE</t>
   </si>
   <si>
     <t>Smartphone Nokia E5 Desbloqueado, Branco - Symbian - Tela 2.3", Camera 5MP, 3G, Wi-Fi, Memoria Interna 250MB e Cartao 2GB</t>
@@ -343,25 +343,25 @@
     <t>Smartphone LG P970 Optimus Black Desbloqueado Claro, Preto - Android 2.2, Processador 1GHZ, Tela 4", Camera de 5MP, 3G, Wi-Fi e Memoria Interna 1GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS BLACK</t>
+    <t>OPTIMUS BLACK</t>
   </si>
   <si>
     <t>Smartphone LG Optimus Pro C660, Desbloqueado TIM -  Android 2.3, Tecnologia 3G, Wi-Fi, Camera 3.2 MP TouchScreen, Teclado Qwerty, GPS, Filmadora, MP3 Player, Radio FM, Bluetooth, Fone, Cabo de Dados e Cartao de Memoria 2GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS PRO</t>
+    <t>OPTIMUS PRO</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S5 Desbloqueado Android 4.4.2 Tela 5.1" 16GB 4G Wi-Fi Camera 16 MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S5</t>
+    <t>GALAXY S5</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S5 Duos SM-G900M Dual Chip Desbloqueado Android 4.4 16GB 4G Wi-Fi GPS - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S5 DUOS SM</t>
+    <t>GALAXY S5 DUOS SM</t>
   </si>
   <si>
     <t>Smartphone LG L70 D325 Dual Chip Desbloqueado Android 4.4 Tela 4.5" 4GB 3G Wi-Fi Camera 8MP - Preto</t>
@@ -370,7 +370,7 @@
     <t>Smartphone Samsung Galaxy S III Mini Desbloqueado Android 4.2 Tela 4" 8GB 3G Wi-Fi Camera 5 MP - Grafite</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S III MINI</t>
+    <t>GALAXY S III MINI</t>
   </si>
   <si>
     <t>Smartphone LG L40 D180 TV Tri Chip Desbloqueado Android 4.4 Tela 3.5" 4GB 3G Wi-Fi Camera 3MP TV Digital - Preto</t>
@@ -382,37 +382,37 @@
     <t>Smartphone Samsung Galaxy A3 Duos Dual Chip Desbloqueado Android 4.4 Tela 4.5" 16GB 4G Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY A3 DUOS</t>
+    <t>GALAXY A3 DUOS</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 630 Windows 8.1 Tela 4.5" 8GB 3G Wi Fi Camera 5MP GPS TV Digital - Preto</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 630</t>
+    <t>LUMIA 630</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Note 4, 4g 32gb, Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY NOTE 4</t>
+    <t>GALAXY NOTE 4</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z3 Compact Desbloqueado Android 4.4 Kit Kat Tela 4.6" 16GB 4G Wi-Fi Camera 20.7MP - Laranja</t>
   </si>
   <si>
-    <t>SONY XPERIA Z3 COMPACT</t>
+    <t>XPERIA Z3 COMPACT</t>
   </si>
   <si>
     <t>Smartphone LG Prime Plus TV Dual Chip Desbloqueado Android 5.0 Tela 5" 8GB 3G Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG PRIME PLUS TV</t>
+    <t>PRIME PLUS TV</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy E5 Duos Dual Chip Desbloqueado Android 4.4 Tela Amoled HD 5" 16GB 4G Wi-Fi Camera 8MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY E5 DUOS</t>
+    <t>GALAXY E5 DUOS</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia ZQ Desbloqueado Vivo Preto - Android 4.1 4G Wi-Fi Camera 13MP Memoria Interna 16GB GPS NFC</t>
@@ -421,61 +421,61 @@
     <t>Smartphone Motorola Novo Moto G Dual Chip XT 1068 Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera de 8MP - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA NOVO MOTO G</t>
+    <t>NOVO MOTO G</t>
   </si>
   <si>
     <t>Smartphone Lg Volt Tv H422tv Titanio, Android 5.0 Lollipop, Tela 4.7, Camera 8mp, Mem 8gb - 3g</t>
   </si>
   <si>
-    <t>LG VOLT TV</t>
+    <t>VOLT TV</t>
   </si>
   <si>
     <t>Smartphone Lg Volt Tv Dual H422 Desbloqueado Azul</t>
   </si>
   <si>
-    <t>LG VOLT TV DUAL</t>
+    <t>VOLT TV DUAL</t>
   </si>
   <si>
     <t>Smartphone LG Optimus HUB E510 - Android 2.3. Cam 5.0MP. Wi Fi. Bluetooth 3.0. 3G e Cartao de Memoria 4GB - Desbloqueado Tim</t>
   </si>
   <si>
-    <t>LG OPTIMUS HUB</t>
+    <t>OPTIMUS HUB</t>
   </si>
   <si>
     <t>Smartphone Motorola Novo Moto G DTV Colors Dual Chip XT 1069 Desbloqueado Android 4.4 Tela 5" 16GB 3G Wi-Fi Camera de 8MP - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA NOVO MOTO G DTV COLORS</t>
+    <t>NOVO MOTO G DTV COLORS</t>
   </si>
   <si>
     <t>Smartphone LG D410 L90 Dual Chip Desbloqueado Android 4.4 Kit Kat Tela 4.7" 8GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG L90</t>
+    <t>L90</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S4 Mini Desbloqueado Vivo Android 4.2 Tela 4" 8GB 4G Wi-Fi Camera 8MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S4 MINI</t>
+    <t>GALAXY S4 MINI</t>
   </si>
   <si>
     <t>Smartphone Sony Ericsson Xperia Arc S, Desbloqueado Tim, Prata - Android 2.3, Processador 1.4GHz, Tela 4.2", Camera 8.0MP, 3G, Wi-Fi, Memoria Interna 320MB e Cartao 16 GB</t>
   </si>
   <si>
-    <t>SONY XPERIA ARC S</t>
+    <t>XPERIA ARC S</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Play Desbloqueado Tim Android 2.3 Tela 4" 400MB 3G Wi-Fi Camera 5.1MP - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA PLAY</t>
+    <t>XPERIA PLAY</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia S Desbloqueado Android 4.0 Tela 4.3" 32GB 3G Wi-Fi Camera 12MP GPS - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA S</t>
+    <t>XPERIA S</t>
   </si>
   <si>
     <t>Smartphone Nokia C5-03 Desbloqueado Claro Tela 3.2" 40MB 3G Wi-Fi Camera 5MP Branco e Lilas + Cartao 2GB</t>
@@ -484,13 +484,13 @@
     <t>Smartphone Samsung Galaxy Fame Lite S6790 Desbloqueado Vivo Android 4.1 Tela 3.5" 4GB 3G Wi-Fi Camera 3MP GPS - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY FAME LITE</t>
+    <t>GALAXY FAME LITE</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia M Dual Desbloqueado Tim Android 4.1 Tela 4" 4GB 3G Wi-Fi Camera 5MP GPS - Branco</t>
   </si>
   <si>
-    <t>SONY XPERIA M DUAL</t>
+    <t>XPERIA M DUAL</t>
   </si>
   <si>
     <t>Smartphone Motorola MOTOSMART ME XT305, Desbloqueado, Branco, Dual Chip - Android 2.3, Display 3.2", Touchscreen, Camera de 2MP, Filmadora, 3G, Wi-Fi, Bluetooth, MP3 Player, Radio FM, GPS, Memoria interna de 512MB, Cartao de Memoria 4GB</t>
@@ -499,13 +499,13 @@
     <t>Smartphone LG G3 Stylus D690 Dual Chip Desbloqueado Android 4.4 Tela 5.5" 8GB 3G Wi-Fi Camera 13MP - Branco</t>
   </si>
   <si>
-    <t>LG G3 STYLUS</t>
+    <t>G3 STYLUS</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto G com 4G Desbloqueado Android 4.4 Tela 4.5" 8GB 4G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO G COM</t>
+    <t>MOTO G COM</t>
   </si>
   <si>
     <t>Smartphone Sony Ericsson X1 XPERIA Desbloqueado Preto Wi Fi 3G Camera 3.2 MP</t>
@@ -514,7 +514,7 @@
     <t>Sony Ericsson</t>
   </si>
   <si>
-    <t>SONY ERICSSON X1 XPERIA</t>
+    <t>X1 XPERIA</t>
   </si>
   <si>
     <t>Smartphone Apple iPhone 4S - Preto - GSM, Tela Touch 3.5" Full HD, iOS 5.0, Processador 1GHz Dual Core, 3G, Wi-Fi, SIRI, iCloud, GPS, Camera 8MP, Memoria interna de 32GB - Desbloqueado Tim</t>
@@ -523,13 +523,13 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>APPLE IPHONE 4 S</t>
+    <t>IPHONE 4 S</t>
   </si>
   <si>
     <t>Smartphone LG L80 TV Single D375 Preto com Tela de 5 pol. TV Digital, Android 4.4</t>
   </si>
   <si>
-    <t>LG L80 TV SINGLE</t>
+    <t>L80 TV SINGLE</t>
   </si>
   <si>
     <t>Smartphone Alcatel Ot 5020 Roxo Dual Chip 3g Camera 5mp</t>
@@ -538,13 +538,13 @@
     <t>Alcatel</t>
   </si>
   <si>
-    <t>ALCATEL OT</t>
+    <t>OT</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Young 2 Duos Tv G130bt Desbloqueado Cinza</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY YOUNG 2 DUOS TV</t>
+    <t>GALAXY YOUNG 2 DUOS TV</t>
   </si>
   <si>
     <t>Smartphone LG Optimus Desbloqueado TIM Preto - Android 4.0, Processador 800Mhz, Touchscreen 4", Camera 5.0 MP com Flash LED, Filmadora, 3G, Wi-Fi, MP3 Player, Radio FM, Bluetooth, GPS, Fone de Ouvido, Cabo de Dados, Memoria interna de 4GB</t>
@@ -553,13 +553,13 @@
     <t>Smartphone LG Optimus G Branco Android 4.1 3G Desbloqueado TIM Camera 13MP Wi-Fi Memoria Interna 32GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS G</t>
+    <t>OPTIMUS G</t>
   </si>
   <si>
     <t>Smartphone Lg Optimus F3 P655 4g Desbloqueado Vivo Preto</t>
   </si>
   <si>
-    <t>LG OPTIMUS F3</t>
+    <t>OPTIMUS F3</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L3 E405 Desbloqueado Tim, Preto, Dual Chip - Android 2.3, Processador 600 Mhz, Tela 3.2", Camera 3.2MP, 3G, Wi-Fi e Memoria Interna 2GB</t>
@@ -574,31 +574,31 @@
     <t>Smartphone Nokia Lumia 820 Desbloqueado Tim Branco Windows Phone 8 4G/Wi Fi Camera 8MP 8GB</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 820</t>
+    <t>LUMIA 820</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S III I9300 Grafite Blue Android 4.0 3G Desbloqueado Vivo - Camera 8MP Wi-Fi GPS Memoria Interna 16GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S III</t>
+    <t>GALAXY S III</t>
   </si>
   <si>
     <t>Smartphone Blu Amour D290I Qband Dual Sim 3G 850/2100 Branco</t>
   </si>
   <si>
-    <t>BLU AMOUR QBAND</t>
+    <t>AMOUR QBAND</t>
   </si>
   <si>
     <t>Smartphone Blu Life Play L100I Qband Dual Sim 3G 850/2100 Cinza</t>
   </si>
   <si>
-    <t>BLU LIFE PLAY QBAND</t>
+    <t>LIFE PLAY QBAND</t>
   </si>
   <si>
     <t>Smartphone Blu Studio 5.0 C Hd, Android 4.4, Dual Chip, Camera 8mp, Mem 4gb, Tela 5.0, 3g - Amarel</t>
   </si>
   <si>
-    <t>BLU STUDIO 5.0 C HD</t>
+    <t>STUDIO 5.0 C HD</t>
   </si>
   <si>
     <t>Smartphone Blu Studio 5.0 C Hd, Android 4.4, Dual Chip, Camera 8mp, Mem 4gb, Tela 5.0, 3g - Azul</t>
@@ -613,67 +613,67 @@
     <t>Smartphone Samsung Galaxy S5 Debloqueado Branco 4G Android 4.4 Tela 5.1"</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S5 DEBLOQUEADO</t>
+    <t>GALAXY S5 DEBLOQUEADO</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S6 G920i Desbloqueado Dourado</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S6</t>
+    <t>GALAXY S6</t>
   </si>
   <si>
     <t>Smartphone Desbloqueado Samsung Galaxy Ace 4 Plus Duos Cinza</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE 4 PLUS DUOS CINZA</t>
+    <t>GALAXY ACE 4 PLUS DUOS CINZA</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A3 4g Duos, Sm-A300m/Ds, Quad Core 1.2 Ghz, Camera 8 Mp, Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY A3</t>
+    <t>GALAXY A3</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy E7 Sm-E700 16 Gb 4g Duos Quad Core 1.2ghz Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY E7 SM</t>
+    <t>GALAXY E7 SM</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Fame Duos S6812 Grafite, Dual Chip, Android 4.1, Wi-Fi, 3g, Camera 5.0, T</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY FAME DUOS</t>
+    <t>GALAXY FAME DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S5 Sm G900 M Azul, 16gb, Quad-Core 2.5ghz, Tela Full Hd 5.1 Polegadas, Ca</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S5 SM M</t>
+    <t>GALAXY S5 SM M</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Trend Lite Gt-S7390 Desbloqueado Tela 4 3g Android 4.4 Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY TREND LITE GT</t>
+    <t>GALAXY TREND LITE GT</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Win 2 Duos G360 Tv Desbloqueado Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY WIN 2 DUOS TV</t>
+    <t>GALAXY WIN 2 DUOS TV</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Siii I9300 Branco, 16gb, Camera 8mp  1.9mp Frontal, Tela 4.8 Polegadas,</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY SIII</t>
+    <t>GALAXY SIII</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A5 4g Duos, Sm-A500m/Ds, Quad Core 1.2 Ghz, Camera 13 Mp, Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY A5</t>
+    <t>GALAXY A5</t>
   </si>
   <si>
     <t>Smartphone Microsoft Lumia 435 Dual Desbloqueado Branco</t>
@@ -682,13 +682,13 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>MICROSOFT LUMIA 435 DUAL</t>
+    <t>LUMIA 435 DUAL</t>
   </si>
   <si>
     <t>Smartphone LG Leon Dual Chip Desbloqueado Android 5.0 Lollipop Tela 4.5" 8GB 3G Camera 5MP TV Digital - Branco</t>
   </si>
   <si>
-    <t>LG LEON</t>
+    <t>LEON</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z3 Compact Preto</t>
@@ -703,13 +703,13 @@
     <t>Blackberry</t>
   </si>
   <si>
-    <t>BLACKBERRY Z10</t>
+    <t>Z10</t>
   </si>
   <si>
     <t>Smartphone LG Volt Dual H422 Dual Chip Desbloqueado Android 5.0 Lollipop Tela 4.7" 8GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG VOLT DUAL</t>
+    <t>VOLT DUAL</t>
   </si>
   <si>
     <t>Smartphone LG G3 Beat Dual D724 Dual Chip Android 4.4 Desbloqueado Android 4.4 Tela 5" 3G Wi-Fi Camera 8MP GPS - Titanio</t>
@@ -718,7 +718,7 @@
     <t>Smartphone Alcatel Pop C1 Dualchip 4015N Desbloqueado Android 4.2 Tela 3.5" 4GB Micro SD ate 32GB Camera de 2MP GPS - Azul</t>
   </si>
   <si>
-    <t>ALCATEL POP C1 DUALCHIP N</t>
+    <t>POP C1 DUALCHIP N</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z3 Compact Desbloqueado Android 4.4 Tela 4.6" 16GB 4G Wi-Fi Camera 20.7MP - Preto</t>
@@ -727,7 +727,7 @@
     <t>Smartphone Lg Optimus L5 Ii E450 Branco, 4 Polegadas, Android 4.1, Processador 1ghz, Camera De 5mp,</t>
   </si>
   <si>
-    <t>LG OPTIMUS L5 II</t>
+    <t>OPTIMUS L5 II</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Note 4 Desbloqueado Android 4.4 Tela 5.7" 32GB Wi-Fi Camera de 16MP - Preto</t>
@@ -739,7 +739,7 @@
     <t>Smartphone LG L50 Dual Chip Desbloqueado Tim Android 4.4 Tela 4" 4GB Wi-Fi 3G Camera 5MP com TV Digital - Preto e Azul</t>
   </si>
   <si>
-    <t>LG L50</t>
+    <t>L50</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto X Desbloqueado Android 4.2.2 Tela 4.7" 16GB Camera 10MP e Frontal 2MP - Bambu</t>
@@ -760,31 +760,31 @@
     <t>Smartphone Lg Leon Tv H326 Desbloqueado Azul/Preto</t>
   </si>
   <si>
-    <t>LG LEON TV</t>
+    <t>LEON TV</t>
   </si>
   <si>
     <t>Smartphone Motorola XT687 AtrixTV, Desbloqueado, Cinza, Dual Chip - Android 4.0, Processador 1GHz, Tela 4", Camera 8.0MP, 3G, Wi-Fi  e Cartao 4GB</t>
   </si>
   <si>
-    <t>MOTOROLA ATRIXTV</t>
+    <t>ATRIXTV</t>
   </si>
   <si>
     <t>Smartphone Motorola XT321 Defy Mini, Rosa, GSM, Dual Chip - Android 2.3, Camera 3MP com Flash, Filmadora, Camera Frontal VGA, 3G, Wi-Fi, Bluetooth, Touch 3.2", Cartao de Memoria de 2GB</t>
   </si>
   <si>
-    <t>MOTOROLA DEFY MINI</t>
+    <t>DEFY MINI</t>
   </si>
   <si>
     <t>Smartphone Dual Chip Motorola Razr D1 Desbloqueado Branco TV Android 4.1 Camera 5MP 3G Wi-Fi</t>
   </si>
   <si>
-    <t>MOTOROLA RAZR D1</t>
+    <t>RAZR D1</t>
   </si>
   <si>
     <t>Smartphone Motorola Razr D3 Dual Chip Branco 3G Android 4.1 Camera 8MP Wi-Fi</t>
   </si>
   <si>
-    <t>MOTOROLA RAZR D3</t>
+    <t>RAZR D3</t>
   </si>
   <si>
     <t>Smartphone Motorola Razr D3 Dual Chip Android 4.1 Tela 4" 3G Wi-Fi Camera 8MP - Preto</t>
@@ -793,7 +793,7 @@
     <t>Smartphone Moto G Music Edition Dual Chip Desbloqueado Android 4.3 Tela 4.5" 16GB 3G Wi-Fi Camera 5MP + Fone de Ouvido Bluetooth Tracks Air Sol Republic - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO G MUSIC EDITION</t>
+    <t>MOTO G MUSIC EDITION</t>
   </si>
   <si>
     <t>Smartphone Motorola Razr D3 Branco Android 4.1 3G - Camera 8MP Wi-Fi GPS 4GB</t>
@@ -805,7 +805,7 @@
     <t>Smartphone Motorola Moto G Desbloqueado TIM Android 4.3 Tela 4.5" 8GB 3G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO G</t>
+    <t>MOTO G</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto G Dual Chip Desbloqueado Tim Android 4.3 Tela 4.5" 8GB 3G Wi-Fi Camera 5MP GPS - Preto</t>
@@ -817,19 +817,19 @@
     <t>Smartphone LG Monster High E400f OpTimus L3 Android 2.3 Tela 3.2" 2GB 3G Wi-Fi Camera 3.2MP - Preto</t>
   </si>
   <si>
-    <t>LG MONSTER HIGH OPTIMUS L3</t>
+    <t>MONSTER HIGH OPTIMUS L3</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus F5 Desbloqueado Claro Tela 4.3" 8GB Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>LG OPTIMUS F5</t>
+    <t>OPTIMUS F5</t>
   </si>
   <si>
     <t>Smartphone LG G2 Desbloqueado Android 4.2 Tela 5.2" 16GB 4G Wi-Fi Camera 13MP - Preto</t>
   </si>
   <si>
-    <t>LG G2</t>
+    <t>G2</t>
   </si>
   <si>
     <t>Smartphone Motorola RAZR i, Desbloqueado TIM Preto, Processador Intel Inside 2GHz, Tela AMOLED Advanced 4.3", Touchscreen, Android 4.0, Camera de 8MP , Camera Frontal VGA, Gravacao Full HD, 3G, Wi-Fi, Bluetooth, GPS, NFC, Memoria Interna de 8GB</t>
@@ -838,7 +838,7 @@
     <t>Smartphone Motorola Defy Pro XT560, GSM, Prata, QWERTY, Android 2.3, Camera 5.0MP, 3G, Wi-Fi, Bluetooth, Cartao de memoria 2GB, Desbloqueado TIM</t>
   </si>
   <si>
-    <t>MOTOROLA DEFY PRO</t>
+    <t>DEFY PRO</t>
   </si>
   <si>
     <t>Smartphone Dual Chip Motorola RAZR D3 Branco Android 4.1 Desbloqueado TIM - Camera 8MP Wi-Fi 3G Processador Dual Core 1,2 Ghz e Memoria Interna 4GB</t>
@@ -850,7 +850,7 @@
     <t>Smartphone LG Optimus E465 L4 II Desbloqueado Claro Preto</t>
   </si>
   <si>
-    <t>LG OPTIMUS L4 II</t>
+    <t>OPTIMUS L4 II</t>
   </si>
   <si>
     <t>Smartphone LG E405f Optimus L3 Dual Chip Desbloqueado Oi - Branco - GSM  Android 2.3  Processador 600 Mhz 3G Wi-Fi  Camera 3.2MP Filmadora  Bluetooth 2.1  MP3 Player Radio FM Memoria interna de 2 GB</t>
@@ -859,13 +859,13 @@
     <t>Smartphone Motorola MB525 Defy Desbloqueado Claro, Preto - Android 2.1, Tela 3.7", Camera 5.0MP, 3G, Wi-Fi, Memoria Interna 2GB e Cartao 8GB</t>
   </si>
   <si>
-    <t>MOTOROLA DEFY</t>
+    <t>DEFY</t>
   </si>
   <si>
     <t>Smartphone Motorola Fire. Branco. Dual Chip.  Touchscreen 2.8". Android 2.3. Cam 3MP. 3G. Wi Fi. GPS + Cartao Memoria 2GB</t>
   </si>
   <si>
-    <t>MOTOROLA FIRE</t>
+    <t>FIRE</t>
   </si>
   <si>
     <t>Smartphone Motorola MOTOSMART ME XT305, Desbloqueado Tim, Branco, Dual Chip - Android 2.3, Display 3.2", Touchscreen, Camera de 2MP, Filmadora, 3G, Wi-Fi, Bluetooth, MP3 Player, Radio FM, GPS, Memoria interna de 512MB, Cartao de Memoria 4GB</t>
@@ -886,7 +886,7 @@
     <t>Smartphone LG Optimus L3 II Preto  - Android 4.1 3G Desbloqueado Camera 3MP Wi-Fi GPS</t>
   </si>
   <si>
-    <t>LG OPTIMUS L3 II</t>
+    <t>OPTIMUS L3 II</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L1 II Tri E475 Tri Chip Desbloqueado Android 4.1 Tela 3" 4GB 3G Wi-Fi Camera 2MP - Branco</t>
@@ -904,7 +904,7 @@
     <t>Smartphone LG Nexus 5 Android 4.4 Tela 5" 16GB 4G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG NEXUS 5</t>
+    <t>NEXUS 5</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L3 II Branco - Android 4.1 3G Desbloqueado Claro - Camera 3MP Wi-Fi GPS</t>
@@ -922,13 +922,13 @@
     <t>Smartphone Motorola XT 300 Spice Desbloqueado Claro, Branco / Rosa - Android 2.1, Touch 3", Camera 3.2MP, 3G, Wi-Fi, Memoria Interna 512MB e Cartao 2GB</t>
   </si>
   <si>
-    <t>MOTOROLA XT 300 SPICE</t>
+    <t>XT 300 SPICE</t>
   </si>
   <si>
     <t>Smartphone Motorola A953 Milestone 2 Desbloqueado TIM, Azul Marinho - Android 2.2, Touch 3.7, Camera 5.0MP c/ Flash LED Duplo, Filmadora HD, 3G, Wi-Fi, GPS, Bluetooth, MP3 Player, Bluetooth 2.1,Fone, Cabo de Dados, Cartao 8GB + Dock Station</t>
   </si>
   <si>
-    <t>MOTOROLA MILESTONE 2</t>
+    <t>MILESTONE 2</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L5 E612 Desbloqueado Oi Preto - 3G Wi Fi Android 4.0 Tela 4" Camera 5MP</t>
@@ -946,7 +946,7 @@
     <t>Smartphone Motorola RAZR HD Preto Android 4.0 4G - Camera 8MP, Camera Frontal 1.3MP, Wi-Fi, GPS, Processador Dual core 1.5 Ghz, Tela AMOLED HD 4.7", Bluetooth, Memoria interna de 16GB, Cartao de memoria de 16GB</t>
   </si>
   <si>
-    <t>MOTOROLA RAZR HD</t>
+    <t>RAZR HD</t>
   </si>
   <si>
     <t>Smartphone LG Optimus P350 Desbloqueado TIM, Prata - Android 2.2, Tela 2.8", 3G, WiFi, GPS, Camera 3.0MP, Memoria Interna 150MB e Cartao 2GB</t>
@@ -958,25 +958,25 @@
     <t>Smartphone Motorola DEFY Desbloq. TIM + Android 2.3 1GHz Wi Fi 3G GPS Cam 5MP 2GB</t>
   </si>
   <si>
-    <t>MOTOROLA DEFY DESBLOQ</t>
+    <t>DEFY DESBLOQ</t>
   </si>
   <si>
     <t>Smartphone Motorola XT390 Motosmart Dual Chip - Cinza - GSM, Tela Touch 3.5", Android 2.3, 3G, Wi-Fi, Camera 3MP, Filmadora, MP3 Player, Radio FM, Incluso Cartao de Memoria de 4GB</t>
   </si>
   <si>
-    <t>MOTOROLA MOTOSMART</t>
+    <t>MOTOSMART</t>
   </si>
   <si>
     <t>Smartphone Motorola XT531 Spice XT, Desbloqueado, Titanio, Android 2.3, Processador 800MHZ, Tela Touch 3.5", Camera 5MP, 3G, Wi-Fi, Memoria Interna 150MB e Cartao de Memoria de 2GB</t>
   </si>
   <si>
-    <t>MOTOROLA SPICE XT</t>
+    <t>SPICE XT</t>
   </si>
   <si>
     <t>Smartphone Motorola RAZR Desbloqueado Tim, Preto - Android 2.3, Processador Dual Core, Tela Touch 4.3", Camera 8MP,Camera Frontal 1.3 MP,  3G, Wi-Fi e Memoria Interna de 16GB</t>
   </si>
   <si>
-    <t>MOTOROLA RAZR</t>
+    <t>RAZR</t>
   </si>
   <si>
     <t>Smartphone Motorola Fire. Preto. Dual Chip.  Touchscreen 2.8". Android 2.3. Cam 3MP. 3G. Wi Fi. GPS + Cartao Memoria 2GB</t>
@@ -988,7 +988,7 @@
     <t>Smartphone Motorola Milestone 3 Desbloqueado TIM Preto - Android 2.3, Processador Dual Core 1GHz, Tela 4", Camera 8MP, 3G, Wi-Fi e Memoria Interna 16GB</t>
   </si>
   <si>
-    <t>MOTOROLA MILESTONE 3</t>
+    <t>MILESTONE 3</t>
   </si>
   <si>
     <t>Smartphone Motorola DEFY Desbloqueado Oi - Android 2.3 Wi Fi 3G Camera 5MP 2GB Cartao de Memoria 8GB</t>
@@ -1003,7 +1003,7 @@
     <t>Smartphone LG Optimus 3D P920  Desbloqueado Vivo Preto Camera 5.0MP 3G Wi Fi  Memoria Interna 8GB Cartao de Memoria 4GB</t>
   </si>
   <si>
-    <t>LG OPTIMUS 3 D</t>
+    <t>OPTIMUS 3 D</t>
   </si>
   <si>
     <t>Smartphone LG P970 Optimus Black Desbloqueado Tim, Preto - Android 2.2, Processador 1GHZ, Tela 4", Camera de 5MP, 3G, Wi-Fi e Memoria Interna 1GB</t>
@@ -1024,7 +1024,7 @@
     <t>Smartphone LG Opitmus 4x HD P880 Preto Android 4.0 3G Desbloqueado Vivo - Camera 8MP Wi-Fi GPS NFC e Memoria Interna 16GB</t>
   </si>
   <si>
-    <t>LG OPITMUS 4 X HD</t>
+    <t>OPITMUS 4 X HD</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L5 E612 Branco - GSM. Android 4.0. Camera 5MP. 3G. Wi Fi. Memoria Interna de 4GB</t>
@@ -1033,13 +1033,13 @@
     <t>Smartphone Lg L Prime Plus Tv H502 Desbloqueado Branco</t>
   </si>
   <si>
-    <t>LG L PRIME PLUS TV</t>
+    <t>L PRIME PLUS TV</t>
   </si>
   <si>
     <t>Smartphone Lg L Prime Dual D337 Dual Chip Desbloqueado Android 4.4 Tela 5 8gb 3g - Preto</t>
   </si>
   <si>
-    <t>LG L PRIME DUAL</t>
+    <t>L PRIME DUAL</t>
   </si>
   <si>
     <t>Smartphone Lg L Prime Dual D337 Dual Chip Desbloqueado Android 4.4 Tela 5 8gb 3g - Branco</t>
@@ -1048,7 +1048,7 @@
     <t>Smartphone LG Prada P940H Preto Desbloqueado Vivo - GSM. Touchscreen. Tela 4.3". WVGA. Android 2.3. Processador Tri-DUAL 1.2GHz. Dualcore. WiFi. 3G. Camera 8MP. Filmadora. MP3 Player. Radio FM. Bluetooth. GPS. Fone de Ouvido. Cabo de Dados. Memoria Interna 8GB Expansivel</t>
   </si>
   <si>
-    <t>LG PRADA</t>
+    <t>PRADA</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto X (2a Geracao) Desbloqueado Android 4.4 Tela 5.2" 32GB 4G 13MP Wi-Fi</t>
@@ -1057,13 +1057,13 @@
     <t>Smartphone Motorola ATRIX Preto - GSM c/ Sistema Operacional Android 2.2, Processador Dual Core, Tecnologia 3G, Wi-Fi, TouchScreen c/ tela 4", Camera 5MP c/ zoom 8x, Filmadora HD, MP3 Player, Radio FM, Bluetooth 2.1, Fone, Cabo de Dados e Memoria Interna</t>
   </si>
   <si>
-    <t>MOTOROLA ATRIX</t>
+    <t>ATRIX</t>
   </si>
   <si>
     <t>Smartphone Motorola A1200i GSM Tim Quadri-band com Display Touch-screen colorido, MP3 Player, Radio FM, Camera 2.0MP c/ zoom 8x, Bluetooth,Fone e Cabo de Dados</t>
   </si>
   <si>
-    <t>MOTOROLA A1200I</t>
+    <t>A1200I</t>
   </si>
   <si>
     <t>Smartphone Motorola Spice Preto - GSM - Desbloqueado TIM  c/ Sistema Operacional Android 2.1, c/ Tecnologia 3G, Wi-Fi, GPS, TouchScreen,Teclado QWERTY, Camera 3.2MP c/ Zomm 8x, Filmadora, MP3 Player, Radio FM, Bluetooth, Fone, Cabo de Dados e Cartao 2GB</t>
@@ -1081,19 +1081,19 @@
     <t>Smartphone Nokia Lumia 930 Desbloqueado Windows 8.1 32GB 4G Wi-Fi Camera 20MP - Branco</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 930</t>
+    <t>LUMIA 930</t>
   </si>
   <si>
     <t>Smartphone LG G3 Desbloqueado Android 4.4 Kit Kat Tela 5.5" 16GB 4G Wi-Fi Camera 13MP - Titanio</t>
   </si>
   <si>
-    <t>LG G3</t>
+    <t>G3</t>
   </si>
   <si>
     <t>Smartphone LG Joy H222F Dual chip Desbloqueado Android 4.4 Kitkat Tela 4" 4GB 3G Wi-Fi Camera 5MP - Titanio</t>
   </si>
   <si>
-    <t>LG JOY</t>
+    <t>JOY</t>
   </si>
   <si>
     <t>Smartphone Motorola Novo Moto G (2a Geracao) Colors Dual Chip XT1068 Desbloqueado Android 5.0 Tela 5" 8GB 3G Wi-Fi Camera 8MP - Preto</t>
@@ -1108,7 +1108,7 @@
     <t>Smartphone Samsung Galaxy Win 2 Duos Dual Chip Desbloqueado Vivo Android 4.4 Tela 4.5" 8GB Wi-Fi Camera 5MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY WIN 2 DUOS</t>
+    <t>GALAXY WIN 2 DUOS</t>
   </si>
   <si>
     <t>Smartphone LG Optimus L5 II Preto - Android 4.1 3G Desbloqueado Camera 5MP Wi-Fi</t>
@@ -1117,13 +1117,13 @@
     <t>Smartphone Samsung Galaxy J1 Duos Dual Chip Desbloqueado Tim Android 4.4 Tela 4.3" 4GB 4G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY J1 DUOS</t>
+    <t>GALAXY J1 DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Mega 5.8 Duos Preto - GSM</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY MEGA 5.8 DUOS</t>
+    <t>GALAXY MEGA 5.8 DUOS</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L1 II Tri E475 Tri Chip Desbloqueado Android 4.1 Tela 3" 4GB 3G Wi-Fi Camera 2MP - Rosa</t>
@@ -1132,7 +1132,7 @@
     <t>Smartphone Samsung Galaxy Ace 4 Duos Dual Chip Desbloqueado Android 4.4 Tela 4" 4GB 3G Camera 5MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE 4 DUOS</t>
+    <t>GALAXY ACE 4 DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Fame Lite S6790 Desbloqueado Vivo Android 4.1 Tela 3.5" 4GB Camera 3MP 3G Wi-Fi GPS - Preto</t>
@@ -1141,13 +1141,13 @@
     <t>Smartphone Motorola Moto Maxx Desbloqueado Android 4.4 Tela 5.2" Memoria 64GB Wi-Fi Camera 21MP Preto</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO MAXX</t>
+    <t>MOTO MAXX</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia E4 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 5MP - Branco</t>
   </si>
   <si>
-    <t>SONY XPERIA E4</t>
+    <t>XPERIA E4</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 800 Branco Windows Phone 7.5 3G Desbloqueado - Camera 8 MP com LED Flash, Tela 3.7", Processador 1.4GHz, Wi-Fi, GPS, Memoria interna de 16GB</t>
@@ -1159,19 +1159,19 @@
     <t>Smartphone Dual Chip Samsung Galaxy S Duos Desbloqueado Preto Android 4.0 Camera 5MP 3G Wi-Fi Memoria Interna de 3GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S DUOS</t>
+    <t>GALAXY S DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Ace 3 Desbloqueado Vivo 4G Cinza Android 4.2 Processador de 1.2 Ghz Dual Core</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE 3</t>
+    <t>GALAXY ACE 3</t>
   </si>
   <si>
     <t>Smartphone Xperia X8 Preto - GSM c/ Sistema Operacional Android 2.1, Tecnologia 3G, Wi-Fi, GPS, TouchScreen, Camera 3.2MP, Filmadora, MP3 Player, Radio FM, Bluetooth, Fone, Cabo de Dados e Cartao 2GB Desbloqueado Tim - Sony</t>
   </si>
   <si>
-    <t>SONY XPERIA X8</t>
+    <t>XPERIA X8</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z1 Desbloqueado Android 4.2 Tela 5" 16GB 4G Wi-Fi Camera 20MP - Roxo</t>
@@ -1180,19 +1180,19 @@
     <t>Smartphone Sony Xperia L Android 4.1 Tela 4.3" 8GB 3G Wi-Fi Camera 8MP - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA L</t>
+    <t>XPERIA L</t>
   </si>
   <si>
     <t>Smartphone LG G2 Lite D295 Dual Chip Desbloqueado Android 4.4 Tela 4.5" 4GB 3G Wi-Fi Camera 8MP - Preto</t>
   </si>
   <si>
-    <t>LG G2 LITE</t>
+    <t>G2 LITE</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Young Plus Dual Chip Desbloqueado Android 4.1 4GB 3G Wi-Fi Camera 3MP TV - Vermelho</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY YOUNG PLUS</t>
+    <t>GALAXY YOUNG PLUS</t>
   </si>
   <si>
     <t>Smartphone Positivo YPY S405 Dual Chip Desbloqueado Android 2.3 Tela 4" 3G Wi-Fi Camera 3MP - Preto</t>
@@ -1201,19 +1201,19 @@
     <t>Positivo</t>
   </si>
   <si>
-    <t>POSITIVO YPY</t>
+    <t>YPY</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 530 Desbloqueado Windows Phone 8.1 Tela 4" 4GB 3G Wi-Fi Camera 5MP GPS - Branco</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 530</t>
+    <t>LUMIA 530</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Young 2 Duos Dual Chip Desbloqueado Android 4.4 Tela 3.5" 4GB 3G Camera 3MP TV Digital - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY YOUNG 2 DUOS</t>
+    <t>GALAXY YOUNG 2 DUOS</t>
   </si>
   <si>
     <t>Smartphone LG G3 Beat Dual D724 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP - Branco</t>
@@ -1246,31 +1246,31 @@
     <t>Smartphone Sony Xperia M4 Aqua Dual Desbloqueado Android 5.0 Tela 5" Memoria Interna 16GB Camera de 13MP Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA M4 AQUA DUAL</t>
+    <t>XPERIA M4 AQUA DUAL</t>
   </si>
   <si>
     <t>Smartphone LG L20 D100 Android 4.4 4GB 3G Wi-Fi Camera 2MP - Preto e Grafite</t>
   </si>
   <si>
-    <t>LG L20</t>
+    <t>L20</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia M2 Aqua Desbloqueado Android 4.4 Tela 4.8" 8GB 4G Wi-Fi Camera 8MP - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA M2 AQUA</t>
+    <t>XPERIA M2 AQUA</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia M2 Android 4.3 Tela 4.8" 8GB 4G Wi-Fi Camera 8MP GPS - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA M2</t>
+    <t>XPERIA M2</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Note III Branco Android 4.3 Camera de 13 MP Wi-Fi 4G Caneta S Pen</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY NOTE III</t>
+    <t>GALAXY NOTE III</t>
   </si>
   <si>
     <t>Smartphone LG G4 Desbloqueado Android 5.0 Tela 5.5" 32GB 4G Wi-Fi Camera 16MP Hexa Core - Titanio</t>
@@ -1294,7 +1294,7 @@
     <t>Smartphone Nokia Lumia 830 Desbloqueado Windows 8.1 Tela 5" 16GB Wi-Fi Camera 10MP GPS - Preto</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 830</t>
+    <t>LUMIA 830</t>
   </si>
   <si>
     <t>Smartphone Dual Chip LG Optimus L7 II Desbloqueado TIM Preto Android 4.1 3G/Wi Fi Camera 8MP 4GB</t>
@@ -1306,7 +1306,7 @@
     <t>Smartphone Samsung Galaxy Note 3 Neo Duos Dual Chip - Android 4.3 Tela 5.5" Camera 8MP com Caneta S Pen - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY NOTE 3 NEO DUOS</t>
+    <t>GALAXY NOTE 3 NEO DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A5 Dual Chip Desbloqueado Android 4.4 Tela 5" 16GB 4G Camera 13MP - Branco</t>
@@ -1315,13 +1315,13 @@
     <t>Smartphone Samsung Galaxy A5 Duos Dual Chip Desbloqueado Android 4.4 Tela 5" 16GB 4G Wi-Fi Camera 13MP - Dourado</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY A5 DUOS</t>
+    <t>GALAXY A5 DUOS</t>
   </si>
   <si>
     <t>Smartphone Positivo YPY S450 Dual-Chip Android 4.2 Tela 4" Wi-Fi Camera 5.0 MP - Preto</t>
   </si>
   <si>
-    <t>POSITIVO YPY DUAL CHIP</t>
+    <t>YPY DUAL CHIP</t>
   </si>
   <si>
     <t>Smartphone LG G3 Desbloqueado Vivo Android 4.4. Kit Kat Tela 5.5" 16GB 4G Camera 13MP Wi Fi - Titanio</t>
@@ -1330,7 +1330,7 @@
     <t>Smartphone Samsung Galaxy GT I9305 Desbloqueado Cinza Sistema Operacional Android 4.0 4G/Wi-Fi Camera 8MP Memoria Interna 16GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GT</t>
+    <t>GALAXY GT</t>
   </si>
   <si>
     <t>Smartphone LG L20 D100 Android 4.4 4GB 3G Wi-Fi Camera 2MP - Branco</t>
@@ -1354,7 +1354,7 @@
     <t>Smartphone Sony Xperia T2 Ultra Dual Chip Desbloqueado Android 4.3 Tela 6" 8GB 3G 13MP Branco + Capa</t>
   </si>
   <si>
-    <t>SONY XPERIA T2 ULTRA</t>
+    <t>XPERIA T2 ULTRA</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia M2 Aqua Desbloqueado Claro Android 4.4 Tela 4.8" 8GB 4G Camera 8MP Preto</t>
@@ -1363,19 +1363,19 @@
     <t>Smartphone Samsung Galaxy Trend Lite Duos Dual Chip Desbloqueado Android 4.1 4GB 3G Wi-Fi Camera 3MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY TREND LITE DUOS</t>
+    <t>GALAXY TREND LITE DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S Duos 2 Dual Chip Desbloqueado Android 4.2 Tela 4" 4GB3G Wi-Fi Camera 5 MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S DUOS 2</t>
+    <t>GALAXY S DUOS 2</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy E5, 4g Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY E5</t>
+    <t>GALAXY E5</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Win 2 Duos Dual Chip Desbloqueado Android 4.4 Tela 4.5" 8GP 4G Camera 5MP - Cinza</t>
@@ -1396,7 +1396,7 @@
     <t>Smartphone LG F60 Dual Chip Desbloqueado Android 4.4 Tela 4.5" 4GB 4G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>LG F60</t>
+    <t>F60</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S4 Zoom 3G Desbloqueado Android 4.2 Tela 4.2" 8GB 3G Wi-Fi Camera 16MP GPS - Preto</t>
@@ -1405,7 +1405,7 @@
     <t>Smartphone LG OpTimus L4 II Dual TV Desbloqueado Tim Android 4.1 Tela 3.8" 4GB 3G Wi-Fi Camera 3MP - Branco</t>
   </si>
   <si>
-    <t>LG OPTIMUS L4 II DUAL TV</t>
+    <t>OPTIMUS L4 II DUAL TV</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia E4 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 5MP - Preto</t>
@@ -1417,7 +1417,7 @@
     <t>Smartphone Nokia Lumia 920 Desbloqueado Branco 32GB - 4G Wi Fi Tela HD 4.5" Windows Phone 8 Camera 8.7MP Bluetooth GPS</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 920</t>
+    <t>LUMIA 920</t>
   </si>
   <si>
     <t>Smartphone LG L20 D100 Desbloqueado Vivo Android 4.4 4GB 3G Wi-Fi Camera 2MP - Branco</t>
@@ -1432,7 +1432,7 @@
     <t>Smartphone LG G Pro Lite Dual Chip Desbloqueado Android 4.1 Tela 5.5" 8GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>LG G PRO LITE</t>
+    <t>G PRO LITE</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy E5 E500m Duos Desbloqueado Preto</t>
@@ -1444,13 +1444,13 @@
     <t>Smartphone Samsung Galaxy S III Neo Duos Dual Chip Desbloqueado Android 4.3 Tela 4.8" 16GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S III NEO DUOS</t>
+    <t>GALAXY S III NEO DUOS</t>
   </si>
   <si>
     <t>Smartphone LG Optimus G Pro Desbloqueado Preto Android 4.1 4G Camera 13MP</t>
   </si>
   <si>
-    <t>LG OPTIMUS G PRO</t>
+    <t>OPTIMUS G PRO</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S6 G920i Desbloqueado Preto</t>
@@ -1471,7 +1471,7 @@
     <t>Smartphone Motorola Moto E 2a Geracao Tim Desbloqueado Android 5.0 Tela 4.5" 8GB 4G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO E</t>
+    <t>MOTO E</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto X 2a Geracao Desbloqueado Android 4.4 Tela 5.2" 32GB 4G Wi-Fi Camera 13MP GPS - Branco Bambu</t>
@@ -1507,7 +1507,7 @@
     <t>Smartphone Samsung Galaxy S4 Mini Duos Dual Chip Desbloqueado Android 4.2 Tela 4.3" 8GB 3G Wi-Fi Camera 8MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S4 MINI DUOS</t>
+    <t>GALAXY S4 MINI DUOS</t>
   </si>
   <si>
     <t>Smartphone LG G2 Lite D295 Dual Chip Desbloqueado Android 4.4 Tela 4.5" 4GB 3G Wi-Fi Camera 8MP - Branco</t>
@@ -1519,7 +1519,7 @@
     <t>Multilaser</t>
   </si>
   <si>
-    <t>MULTILASER TREND</t>
+    <t>TREND</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto G (2a Geracao) Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera de 8MP - Preto</t>
@@ -1528,7 +1528,7 @@
     <t>Smartphone Samsung Galaxy A7 A700 Duos Desbloqueado Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY A7 DUOS</t>
+    <t>GALAXY A7 DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A7 A700 Duos Desbloqueado Dourado</t>
@@ -1537,13 +1537,13 @@
     <t>Smartphone Samsung Galaxy S3 Slim G3812 Dual Chip Desbloqueado Tim Android 4.2.2 Tela 4.5" 8GB 3G Wi-Fi Camera 5MP Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S3 SLIM</t>
+    <t>GALAXY S3 SLIM</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L4 II Dual TV Desbloquado Tim Preto Android 4.1 Tela 3.8" 4GB 3G Wi-Fi Camera de 3MP - Preto</t>
   </si>
   <si>
-    <t>LG OPTIMUS L4 II DUAL TV DESBLOQUADO</t>
+    <t>OPTIMUS L4 II DUAL TV DESBLOQUADO</t>
   </si>
   <si>
     <t>Smartphone Blu Studio 5.0 C Hd, Android 4.4, Dual Chip, Camera 8mp, Mem 4gb, Tela 5.0, 3g - Branco</t>
@@ -1558,7 +1558,7 @@
     <t>Smartphone Microsoft Lumia 435 Dual Chip Desbloqueado Windows Phone 8.1 Tela 4" 8GB 3G Wi-Fi Camera 2MP - Branco</t>
   </si>
   <si>
-    <t>MICROSOFT LUMIA 435</t>
+    <t>LUMIA 435</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Core Plus Dual Chip Desbloqueado Tim Android 4.3 Tela 4.3" 4GB 3G Wi-Fi Camera 5MP Preto</t>
@@ -1570,13 +1570,13 @@
     <t>Smartphone Asus ZenFone 5 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP Branco</t>
   </si>
   <si>
-    <t>ASUS ZENFONE 5</t>
+    <t>ZENFONE 5</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia C4 Selfie Dual Desbloqueado Android 5 Lollipop Tela Full HD 5.5" 16GB de Memoria Interna 4G Camera Frontal 5MP e Traseira 13MP Branco</t>
   </si>
   <si>
-    <t>SONY XPERIA C4 SELFIE DUAL</t>
+    <t>XPERIA C4 SELFIE DUAL</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A3 Duos Dual Chip Desbloqueado Android 4.4 Tela Super Amoled 4.5" 16GB Wi-Fi 4G Camera 8MP - Dourado</t>
@@ -1585,7 +1585,7 @@
     <t>Smartphone LG D157 TV L35 Dual Chip Desbloqueado Android 4.4 Tela 3.2" 4GB 3G Wi-Fi Camera 3MP TV Digital - Preto</t>
   </si>
   <si>
-    <t>LG TV L35</t>
+    <t>TV L35</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Note 4 Desbloqueado Android 4.4 Tela 5.7" 32GB Wi-Fi Camera de 16MP - Branco</t>
@@ -1597,7 +1597,7 @@
     <t>Smartphone LG G2 Mini D618 Dual Chip Desbloqueado Android 4.4 Tela 4.7" 8GB 3G Wi-Fi 8MP - Branco</t>
   </si>
   <si>
-    <t>LG G2 MINI</t>
+    <t>G2 MINI</t>
   </si>
   <si>
     <t>Smartphone LG G2 Mini D618 Dual Chip Desbloqueado Android 4.4 Tela 4.7" 8GB 3G Wi-Fi 8MP - Preto</t>
@@ -1606,7 +1606,7 @@
     <t>Smartphone Motorola Moto G Colors Edition Dual Chip Desbloqueado Android 4.3 Tela 4.5" 16GB 3G Wi-Fi Camera 5MP GPS - Preto</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO G COLORS EDITION</t>
+    <t>MOTO G COLORS EDITION</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L7 II Desbloqueado Android 4.1 Tela 4.3" 4GB 3G Wi-Fi - Camera 8MP - Branco</t>
@@ -1624,7 +1624,7 @@
     <t>Smartphone LG Volt H422TV Dual Chip Desbloqueado Android 5.0 Tela 4.7" 8GB 3G Wi-Fi Camera 8MP com TV Digital - Dourado</t>
   </si>
   <si>
-    <t>LG VOLT</t>
+    <t>VOLT</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy E5 Duos Dual Chip Desbloqueado Android 4.4 Tela Amoled HD 5" 16GB 4G Wi-Fi Camera 8MP - Branco</t>
@@ -1648,13 +1648,13 @@
     <t>Smartphone LG OpTimus 3D Max P720H Android 2.3 Tela 4.3" 3G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>LG OPTIMUS 3 D MAX</t>
+    <t>OPTIMUS 3 D MAX</t>
   </si>
   <si>
     <t>Smartphone Dual Chip LG Optimus L5 II Dual Branco Android 4.1 Desbloqueado - Camera 5.0MP 3G Wi-Fi GPS</t>
   </si>
   <si>
-    <t>LG OPTIMUS L5 II DUAL</t>
+    <t>OPTIMUS L5 II DUAL</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L5 II Dual Chip Desbloqueado Android 4.1 Tela 4" 4GB 3G Wi-Fi Camera 5MP - Preto</t>
@@ -1669,7 +1669,7 @@
     <t>Smartphone LG L Prime D337 Dual Chip Android 4.4 Kit Kat Tela 5" 8GB 3G Wi-Fi Camera 8MP - Dourado</t>
   </si>
   <si>
-    <t>LG L PRIME</t>
+    <t>L PRIME</t>
   </si>
   <si>
     <t>Smartphone LG L Prime Dual D337 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP TV Digital - Branco</t>
@@ -1690,13 +1690,13 @@
     <t>Smartphone Motorola Moto E DTV Colors Dual Chip Desbloqueado Android 4.4 Tela 4.3" 4GB 3G Wi-Fi Camera 5MP GPS TV Digital - Branco</t>
   </si>
   <si>
-    <t>MOTOROLA MOTO E DTV COLORS</t>
+    <t>MOTO E DTV COLORS</t>
   </si>
   <si>
     <t>Smartphone LG L40 D175 Dual Chip Desbloqueado Android 4.4 Tela 3.5" 4GB 3G Wi-Fi Camera 3MP - Rosa</t>
   </si>
   <si>
-    <t>LG L40</t>
+    <t>L40</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L1 II Desbloqueado Android 4.1 Tela 3" 4GB 3G Wi-Fi Camera 2MP - Branco</t>
@@ -1708,7 +1708,7 @@
     <t>Smartphone LG L50 Sporty TV Dual Chip Desbloqueado Android 4.4 Kit Kat Tela 4" 4GB 3G Wi-Fi Camera 5MP - Branco e Rosa</t>
   </si>
   <si>
-    <t>LG L50 SPORTY TV</t>
+    <t>L50 SPORTY TV</t>
   </si>
   <si>
     <t>Smartphone LG D375 L80 Desbloqueado Android 4.4 Kitkat Tela 5'' 8GB Wi-Fi Camera de 8MP TV Digital - Preto</t>
@@ -1717,7 +1717,7 @@
     <t>Smartphone Samsung Galaxy Gran Prime Duos Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP TV Digital - Cinza</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN PRIME DUOS</t>
+    <t>GALAXY GRAN PRIME DUOS</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z1 Desbloqueado Android 4.2 Tela 5" 16GB 4G Wi-Fi Camera 20MP - Branco</t>
@@ -1732,13 +1732,13 @@
     <t>Smartphone Dual Chip Nokia X Desbloqueado Preto Nokia Platform 1.1 Conexao 3G Memoria Interna 4GB</t>
   </si>
   <si>
-    <t>NOKIA X</t>
+    <t>X</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia E Dual Chip Desbloqueado Tim Preto Android 4.0 3G Wi-Fi Camera 3.2MP - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA E</t>
+    <t>XPERIA E</t>
   </si>
   <si>
     <t>Smartphone Asus Zenfone 6 Dual Chip Desbloqueado Android 4.4 Tela 6" 32GB 3G Camera 13MP - Branco</t>
@@ -1747,7 +1747,7 @@
     <t>Smartphone Positivo X800 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 13MP - Preto</t>
   </si>
   <si>
-    <t>POSITIVO X800</t>
+    <t>X800</t>
   </si>
   <si>
     <t>Smartphone LG L50 Dual Chip Desbloqueado Tim Android 4.4 Tela 4" 4GB Wi-Fi 3G Camera 5MP com TV Digital - Branco e Rosa</t>
@@ -1762,19 +1762,19 @@
     <t>Smartphone LG G3 Beat Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP - Dourado</t>
   </si>
   <si>
-    <t>LG G3 BEAT</t>
+    <t>G3 BEAT</t>
   </si>
   <si>
     <t>Smartphone Alcatel Pop C7 Dualchip 704B Desbloqueado Android 4.2 Tela 5" 4GB Micro SD ate 32GB Camera de 5MP GPS - Branco</t>
   </si>
   <si>
-    <t>ALCATEL POP C7 DUALCHIP 704 B</t>
+    <t>POP C7 DUALCHIP 704 B</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia T3 Desbloqueado Android 4.4 Tela 5.3" 8GB 4G Wi-Fi Camera de 8MP - Branco</t>
   </si>
   <si>
-    <t>SONY XPERIA T3</t>
+    <t>XPERIA T3</t>
   </si>
   <si>
     <t>Smartphone Alcatel OT-4007E Pixi Dual Chip Desbloqueado Claro Android 2.3 Tela 3.5" 100MB 3G Wi-Fi Camera 2MP - Preto</t>
@@ -1789,7 +1789,7 @@
     <t>Smartphone Multilaser MS2 Android 4.2 Wi Fi Bluetooth Camera 3.0 MP 4GB Cartao Micro SD GPS Dual Chip - Azul</t>
   </si>
   <si>
-    <t>MULTILASER MS2</t>
+    <t>MS2</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Trend Lite Duos Dual Chip Desbloqueado Android 4.1 4GB 3G Wi-Fi Camera 3MP - Preto</t>
@@ -1801,7 +1801,7 @@
     <t>Smartphone Samsung Galaxy Gran Duos Desbloqueado Vivo - Dual Chip Tela 5" Android 4.1 Camera 8MP 3G Wi-Fi Bluetooth GPS</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN DUOS</t>
+    <t>GALAXY GRAN DUOS</t>
   </si>
   <si>
     <t>Smartphone LG Joy H222F Dual Chip Desbloqueado Android 4.4 Kitkat Tela 4" 4GB 3G Wi-Fi Camera 5MP- Branco</t>
@@ -1846,13 +1846,13 @@
     <t>Smartphone Sony Xperia Z2 Desbloqueado Android 4.4 Tela 5.2" 16GB 4G Wi-Fi Camera 20.7MP GPS TV Digital - Branco + Pulseira SmartBand</t>
   </si>
   <si>
-    <t>SONY XPERIA Z2</t>
+    <t>XPERIA Z2</t>
   </si>
   <si>
     <t>Smartphone Multilaser MS4 Dual Chip Android 4.2 Tela 4.5" 4GB 3G Wi-Fi Camera 8MP - Branco</t>
   </si>
   <si>
-    <t>MULTILASER MS4</t>
+    <t>MS4</t>
   </si>
   <si>
     <t>Smartphone LG G4 Desbloqueado Android 5.1 Lollipop Tela 5,5'' 32GB Wi-Fi Camera de 16MP - Couro Preto</t>
@@ -1861,7 +1861,7 @@
     <t>Smartphone Samsung Galaxy Pocket Plus Duos Desbloqueado Tim Branco Android 4.0 Camera 2MP Memoria Interna 3GB Wi Fi GPS</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY POCKET PLUS DUOS</t>
+    <t>GALAXY POCKET PLUS DUOS</t>
   </si>
   <si>
     <t>Smartphone LG G4 Desbloqueado Android 5.1 Lollipop Tela 5,5'' 32GB Wi-Fi Camera de 16MP - Titanio</t>
@@ -1870,7 +1870,7 @@
     <t>Smartphone Samsung Galaxy Note II Desbloqueado Tim Cinza Android 4.1 Camera de 8.0MP 3G Wi Fi Memoria Interna de 16GB + Caneta S Pen</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY NOTE II</t>
+    <t>GALAXY NOTE II</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Fame Duos Dual Chip Desbloqueado Android 4.1 Tela 3.5" 4GB Camera 5MP 3G Wi-Fi GPS - Grafite</t>
@@ -1885,7 +1885,7 @@
     <t>Smartphone LG G Flex2 Desbloqueado Android 5.0 Tela 5.5" 16GB 4G Camera 13MP e Processador Octa Core - Titanio</t>
   </si>
   <si>
-    <t>LG G</t>
+    <t>G</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S III I9300 Desbloqueado Android 4.0 Tela 4.8" 16GB 3G Wi-Fi Camera 8MP GPS - Branco</t>
@@ -1894,7 +1894,7 @@
     <t>Smartphone Samsung Galaxy Alpha Desbloqueado Android 4.4 Tela 4.7" 32GB 4G Wi-Fi Camera 12MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ALPHA</t>
+    <t>GALAXY ALPHA</t>
   </si>
   <si>
     <t>Smartphone LG Joy H222F Dual chip Desbloqueado Android 4.4 Kitkat Tela 4" 4GB 3G Wi-Fi Camera 5MP- Azul</t>
@@ -1921,19 +1921,19 @@
     <t>Smartphone Sony Ericsson Xperia  arc 3G Android 2.3 Wi-Fi Cam 8MP aGPS 16GB</t>
   </si>
   <si>
-    <t>SONY XPERIA ARC</t>
+    <t>XPERIA ARC</t>
   </si>
   <si>
     <t>Smartphone Sony Ericsson Xperia neo 3G Android 2.3 Wi Fi Cam 8.1MP aGPS 8GB - Desbloqueado Claro</t>
   </si>
   <si>
-    <t>SONY XPERIA NEO</t>
+    <t>XPERIA NEO</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Gran Prime Duos Sm-G531b 5 8gb Android 4-4 8mp Tv Quad Core Dourado</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN PRIME DUOS SM 5</t>
+    <t>GALAXY GRAN PRIME DUOS SM 5</t>
   </si>
   <si>
     <t>Smartphone LG G4 Desbloqueado Android 5.1 Lollipop Tela 5,5'' 32GB Wi-Fi Camera de 16MP - Branco</t>
@@ -1948,7 +1948,7 @@
     <t>Huawei</t>
   </si>
   <si>
-    <t>HUAWEI ASCEND</t>
+    <t>ASCEND</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia E1 Dual Chip Desbloqueado Android 4.3 Tela 4" 3G Wi-Fi Camera 3MP TV Digital - Branco</t>
@@ -1969,19 +1969,19 @@
     <t>Smartphone Nokia Lumia 1020 Smartphone Desbloqueado Windows Phone 8 Tela 4.5" 32GB 4G Wi-Fi Camera 41MP GPS - Branco</t>
   </si>
   <si>
-    <t>NOKIA LUMIA</t>
+    <t>LUMIA</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Core 2 Duos G355M Dual Chip Android 4.4 Tela 4.5" 3G Wi-Fi Camera 5MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY CORE 2 DUOS</t>
+    <t>GALAXY CORE 2 DUOS</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 730 Desbloqueado Tela 4.7 Dual Chip 3g Windows Phone 8 Laranja</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 730</t>
+    <t>LUMIA 730</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia E Dual Chip Desbloqueado Claro Android 4.0 Tela 3.5" 3G Wi-Fi Camera 3.2MP - Preto</t>
@@ -1990,13 +1990,13 @@
     <t>Smartphone Samsung Omnia M, Desbloqueado, Preto, Tela Super Amoled 4", Touchscreen, Processador 1Ghz, Windows Phone 7.5, Camera 5MP, 3G, Wi-Fi e Memoria Interna 4GB</t>
   </si>
   <si>
-    <t>SAMSUNG OMNIA M</t>
+    <t>OMNIA M</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Ace - Branco -  GSM, Tela Touch 3.5", Android 2.2, Processador 800 MHz, 3G, Wi-Fi, GPS,Camera de 5MP, Incluso cartao de memoria de 2GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE</t>
+    <t>GALAXY ACE</t>
   </si>
   <si>
     <t>Smartphone LG G3 Desbloqueado Android 4.4 Kit Kat Tela 5.5" 16GB 4G Wi-Fi Camera 13MP - Branco</t>
@@ -2014,7 +2014,7 @@
     <t>Smartphone Alcatel Idol Dual Chip Desbloqueado Android 4.1 Tela 4.7" 16GB 3G Wi-Fi Camera 8MP - Cinza</t>
   </si>
   <si>
-    <t>ALCATEL IDOL</t>
+    <t>IDOL</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S4 Mini Dual Chip 3g 8gb Dual Core 1,7ghz | Cor: Preto</t>
@@ -2023,19 +2023,19 @@
     <t>Smartphone Samsung Galaxy Core Ii Duos, 3g Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY CORE II DUOS</t>
+    <t>GALAXY CORE II DUOS</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia C Dual Chip Desbloqueado Android 4.2 Tela 5" 4GB 3G Wi-Fi Camera 8MP - Roxo</t>
   </si>
   <si>
-    <t>SONY XPERIA C</t>
+    <t>XPERIA C</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Music Duos Dual Chip Desbloqueado Android 4.0 Tela 3" Wi-Fi 4GB Camera 3.2MP GPS - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY MUSIC DUOS</t>
+    <t>GALAXY MUSIC DUOS</t>
   </si>
   <si>
     <t>Smartphone LG OpTimus L7 II Dual Chip Desbloqueado Tim Android 4.1 Tela 4.3" 4GB 3G Wi-Fi Camera 8MP - Branco</t>
@@ -2047,7 +2047,7 @@
     <t>Smartphone Samsung Galaxy Y Prata Desbloqueado Claro - GSM, Android 2.3, Processador 832MHz, Camera de 2MP, 3G, Wi-Fi, Touchscreen 3", Teclado Swype, Cartao de Memoria 2GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY Y</t>
+    <t>GALAXY Y</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy SIII 4G Desbloqueado Prata</t>
@@ -2059,7 +2059,7 @@
     <t>Smartphone Positivo YPYS460 TV Dual Chip Desbloqueado Android 4.2 Tela 4" 3G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>POSITIVO TV</t>
+    <t>TV</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A3 4g Duos, Sm-A300m/Ds, Quad Core 1.2 Ghz, Camera 8 Mp, Branco</t>
@@ -2077,7 +2077,7 @@
     <t>Smartphone Galaxy S5 Mini Desbloqueado Branco / Dual Chips / CaMera De 8.0 Mp / Flash / Tela 4.5</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S5 MINI</t>
+    <t>GALAXY S5 MINI</t>
   </si>
   <si>
     <t>Smartphone Dual Chip Nokia X Desbloqueado Branco Nokia Platform 1.1 Conexao 3G Memoria Interna 4GB</t>
@@ -2101,19 +2101,19 @@
     <t>Smartphone Nokia Lumia 925 Desbloqueado Branco Memoria Interna 16 GB - 4G Wi-Fi Tela HD 4.5" Windows Phone 8 Camera 8.7MP Bluetooth GPS</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 925</t>
+    <t>LUMIA 925</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Gran Neo Duos Dual Chip Desbloqueado Android 4.2 Tela 5" 8GB 3G Wi-Fi Camera 5MP TV Digital - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN NEO DUOS</t>
+    <t>GALAXY GRAN NEO DUOS</t>
   </si>
   <si>
     <t>SmartphoneTri Chip Samsung Galaxy Star Trios Desbloqueado Android 4.1 Wi-Fi,3G Camera 2MP Memoria Interna 4GB GPS</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY STAR TRIOS</t>
+    <t>GALAXY STAR TRIOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S5 Duos SM-G900M Dual Chip Desbloqueado Android 4.4 Tela 5.1" 16GB 4G Wi-Fi GPS - Azul</t>
@@ -2122,7 +2122,7 @@
     <t>Smartphone Samsung Galaxy S II Duos S7273 Dual Chip Desbloqueado Tim Android 4.2 4GB TV Digital - Cinza</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S II DUOS</t>
+    <t>GALAXY S II DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S4 Mini Duos Dual Chip Desbloqueado Android 4.2 Tela 4.3" 8GB 3G Wi-Fi Camera 8MP - Rosa</t>
@@ -2131,7 +2131,7 @@
     <t>Smartphone Sony Xperia Z3 Desbloqueado Android 4.4 Tela 5.2" 16GB 4G Wi-Fi Camera 20.7MP - Preto + Pulseira SmartBand</t>
   </si>
   <si>
-    <t>SONY XPERIA Z3</t>
+    <t>XPERIA Z3</t>
   </si>
   <si>
     <t>Smartphone Alcatel Idol Dual Chip Desbloqueado Android 4.1 Tela 4.7" 16GB 3G Wi-Fi Camera de 8MP - Prata</t>
@@ -2146,31 +2146,31 @@
     <t>Smartphone Nokia C3 Desbloqueado Claro, Dourado / Branco - Symbian S40 6.0, Camera 2.0MP, Wi-Fi, Camera 2.0MP, Memoria Interna 55MB e Cartao 2GB</t>
   </si>
   <si>
-    <t>NOKIA C3</t>
+    <t>C3</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Young Duos Dual Chip Desbloqueado Android 4.1 Tela 3.2" 3G Wi-Fi Camera 3MP 4GB GPS TV Digital - Prata</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY YOUNG DUOS</t>
+    <t>GALAXY YOUNG DUOS</t>
   </si>
   <si>
     <t>Smartphone Multilaser MS5 Android 4.2 Wi Fi Bluetooth Camera 8.0 MP 4GB Cartao Micro SD GPS - Branco</t>
   </si>
   <si>
-    <t>MULTILASER MS5</t>
+    <t>MS5</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 900 Preto - GSM Tela Curva 4.3" AMOLED Windows Phone 7.5 Processador 1.4GHz 3G Wi Fi GPS Camera 8 MP Camera Frontal de 1.3 MP MP3 Player Memoria interna de 16GB e Gratis 25GB de Armazenamento no Sky Drive - Desbloqueado Vivo</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 900</t>
+    <t>LUMIA 900</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Trend Lite S7390 Desbloqueado Claro Android 4.2 Tela 4" 4GB 3G Wi-Fi Camera 3MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY TREND LITE</t>
+    <t>GALAXY TREND LITE</t>
   </si>
   <si>
     <t>Smartphone LG E400f Optimus L3 Desbloqueado Oi BrancoAndroid 2.3 3G Wi-Fi Camera 3.2MP Memoria interna de 2 GB</t>
@@ -2179,7 +2179,7 @@
     <t>Smartphone Nokia N8 Desbloqueado Claro, Cinza - Symbian 3, Tela 3.5", Camera 12MP, 3G, Wi-Fi e Memoria Interna 16GB</t>
   </si>
   <si>
-    <t>NOKIA N8</t>
+    <t>N8</t>
   </si>
   <si>
     <t>Smartphone LG G2 Desbloqueado Android 4.2 Jely Bean Tela 5.2" 16GB 4G Wi-Fi Camera 13MP - Dourado</t>
@@ -2191,13 +2191,13 @@
     <t>Smartphone Sony Xperia Z Ultra Desbloqueado Android 4.2 Tela 6.4" 16GB 4G Wi-Fi Camera 8MP GPS TV Digital - Preto</t>
   </si>
   <si>
-    <t>SONY XPERIA Z ULTRA</t>
+    <t>XPERIA Z ULTRA</t>
   </si>
   <si>
     <t>Smartphone Nokia X3-02 Desbloqueado Azul Camera 5MP 3G Wi-Fi Cartao 2GB</t>
   </si>
   <si>
-    <t>NOKIA X3</t>
+    <t>X3</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia L Android 4.1 Tela 4.3" 8GB 3G Wi-Fi Camera 8MP GPS - Branco</t>
@@ -2209,7 +2209,7 @@
     <t>Smartphone Alcatel Pop C7 Dualchip 704BR Desbloqueado Android 4.2 Tela 5" 4GB Camera de 5MP GPS - Branco</t>
   </si>
   <si>
-    <t>ALCATEL POP C7 DUALCHIP 704 BR</t>
+    <t>POP C7 DUALCHIP 704 BR</t>
   </si>
   <si>
     <t>Smartphone Sony Ericsson Xperia Arc S Desbloqueado Tim Prata Android 2.3 Camera 8MP 3G Wi-Fi Memoria Interna 320MB Cartao 16 GB</t>
@@ -2224,13 +2224,13 @@
     <t>Smartphone Nokia C7-00 Prata Symbian3 Wi Fi 3G Cam 8MP GPS MP3 FM 8GB</t>
   </si>
   <si>
-    <t>NOKIA C7</t>
+    <t>C7</t>
   </si>
   <si>
     <t>Smartphone Dual Chip Samsung Galaxy Young Duos TV, Desbloqueado, Vermelho, Android 4.1, Processador 1Ghz, Tela 3.2", Camera 3MP, 3G, Wi-Fi, GPS e Memoria Interna 4GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY YOUNG DUOS TV</t>
+    <t>GALAXY YOUNG DUOS TV</t>
   </si>
   <si>
     <t>Smartphone Huawei Ascend G510 Desbloqueado Preto Android 4.1 3G/Wi Fi Camera 5MP 4GB</t>
@@ -2242,25 +2242,25 @@
     <t>Smartphone Samsung Galaxy Y TV Desbloqueado Claro S5367 Prata - GSM, Camera 3.2MP, Touchscreen, 3G, Wi-Fi, Memoria interna 180MB, Cartao de Memoria 2GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY Y TV</t>
+    <t>GALAXY Y TV</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S III I9300 Metallic Blue Android 4.0 3G - Camera 8MP Wi-Fi GPS Memoria Interna 16GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S III METALLIC BLUE</t>
+    <t>GALAXY S III METALLIC BLUE</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Ace Duos S6802 Dual Chip Preto Tela Touch 3.5" - Android 2.3 3G WiFi Camera 5MP Memoria Interna de 3GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE DUOS</t>
+    <t>GALAXY ACE DUOS</t>
   </si>
   <si>
     <t>Smartphone Nokia Asha 311 Desbloqueado Vivo Tela 3" 256MB 3G Wi-Fi Camera de 3.2MP - Preto</t>
   </si>
   <si>
-    <t>NOKIA ASHA 311</t>
+    <t>ASHA 311</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 820, Desbloqueado TIM, Preto, Windows Phone 8, 4G, Wi-Fi, Camera 8MP, Memoria Interna 8GB, GPS</t>
@@ -2272,7 +2272,7 @@
     <t>Smartphone Samsung Galaxy Fame GT-S6810 Desbloqueado</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY FAME GT</t>
+    <t>GALAXY FAME GT</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia ZQ Desbloqueado Tim Preto Processador Quad-Core 1.5 Ghz Android 4.1 Tela 5" 4G Wi-Fi Camera 13MP Memoria Interna 16GB GPS NFC</t>
@@ -2287,7 +2287,7 @@
     <t>Smartphone Alcatel One Touch Idol Mini Dual Core Desbloqueado Android 4.2 Tela 4.3" 8GB 3G 5MP - Rosa</t>
   </si>
   <si>
-    <t>ALCATEL ONE TOUCH IDOL MINI</t>
+    <t>ONE TOUCH IDOL MINI</t>
   </si>
   <si>
     <t>Smartphone LG L40 D175 Dual Chip Desbloqueado Android 4.4 Tela 3.5" 4GB 3G Wi-Fi Camera 3MP - Branco</t>
@@ -2299,13 +2299,13 @@
     <t>Smartphone Positivo S550 Dual Chip Desbloqueado Android 4.4 Tela 5.5" 4GB 3G Wi-Fi Camera 5MP - Branco</t>
   </si>
   <si>
-    <t>POSITIVO S550</t>
+    <t>S550</t>
   </si>
   <si>
     <t>Smartphone Huawei Ascend Y330 Colors Desbloqueado Tela 4 3g Android 4.2 Preto</t>
   </si>
   <si>
-    <t>HUAWEI ASCEND COLORS</t>
+    <t>ASCEND COLORS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Gran Prime Duos Desbloqueado Android 4.4 Tela 5" 8GB 3G Camera 8MP TV Digital - Dourado</t>
@@ -2314,7 +2314,7 @@
     <t>Smartphone Alcatel M Pop Dual Chip Desbloqueado Android 4.1 Tela 4" 4GB 3G Wi-Fi Camera de 5MP - Preto</t>
   </si>
   <si>
-    <t>ALCATEL M POP</t>
+    <t>M POP</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia C Desbloqueado Android 4.2 Tela 5" 4GB 3G Wi-Fi Camera 8MP - Preto</t>
@@ -2329,7 +2329,7 @@
     <t>Smartphone Samsung Galaxy S4 Active Desbloqueado Android 4.2 Tela 5" 16GB 4G WiFi Camera de 8MP - Grafite</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY S4 ACTIVE</t>
+    <t>GALAXY S4 ACTIVE</t>
   </si>
   <si>
     <t>Smartphone Alcatel M Pop Dual Chip Desbloqueado Android 4.1 Tela 4" 512MB 3G Wi-Fi Camera 5MP - Roxo</t>
@@ -2341,7 +2341,7 @@
     <t>Smartphone Samsung Galaxy Gran Duos GT-I9082 Grafite Desbloqueado - GSM</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN DUOS GT</t>
+    <t>GALAXY GRAN DUOS GT</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Gran Neo Duos Dual Chip Desbloqueado Android 4.2 3G Wi-Fi Camera 5MP TV Digital - Branco</t>
@@ -2353,13 +2353,13 @@
     <t>Smartphone Samsung Galaxy Pocket Plus Desbloqueado Tim Branco Android 4.0 Camera 2MP Memoria Interna 3GB Wi-Fi GPS</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY POCKET PLUS</t>
+    <t>GALAXY POCKET PLUS</t>
   </si>
   <si>
     <t>Smartphone Samsung Express Desbloqueado Vivo Cinza Android 4.1 4G Camera 5MP</t>
   </si>
   <si>
-    <t>SAMSUNG EXPRESS</t>
+    <t>EXPRESS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S III Branco 3G Desbloqueado Vivo - Camera 8MP Wi-Fi GPS 16GB</t>
@@ -2368,7 +2368,7 @@
     <t>Smartphone Samsung Galaxy Pocket Neo S5310 Branco - GSM</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY POCKET NEO</t>
+    <t>GALAXY POCKET NEO</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S II Desbloqueado VIVO, Preto - Android 2.3, Processador Dual Core, Tela Touch 4.27", Camera 8MP, 3G, Wi-Fi e Memoria Interna de 16GB</t>
@@ -2377,19 +2377,19 @@
     <t>Smartphone Samsung Galaxy SII Duos TV Cinza Desbloqueado Tim GSM</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY SII DUOS TV CINZA</t>
+    <t>GALAXY SII DUOS TV CINZA</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 625, Desbloqueado TIM, Preto, Processador 1.2GHz dual core ,Tela Touchscreen 4.7", Windows Phone 8, Camera 5MP com flash LED, Camera Frontal VGA, 4G, Wi-Fi, Bluetooth, GPS e Memoria Interna de 8G</t>
   </si>
   <si>
-    <t>NOKIA LUMIA 625</t>
+    <t>LUMIA 625</t>
   </si>
   <si>
     <t>Smartphone Huawei Ascend P6 Desbloqueado Rosa Android 4.2 3G/Wi Fi Camera 8 MP 8GB</t>
   </si>
   <si>
-    <t>HUAWEI ASCEND P6</t>
+    <t>ASCEND P6</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia ZQ Desbloqueado Claro Android 4.1 Tela 5" 16GB 4G Wi-Fi Camera 13MP - Vermelho</t>
@@ -2404,7 +2404,7 @@
     <t>Smartphone Positivo S450 Dual Chip Desbloqueado Android 4.2 Tela 4" Memoria interna 4GB ROM 3G Camera 5MP + Cartao 8GB - Branco</t>
   </si>
   <si>
-    <t>POSITIVO S450</t>
+    <t>S450</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy S5 Desbloqueado Android 4.4.2 Tela 5.1" 16GB 4G Wi-Fi Camera 16 MP - Azul</t>
@@ -2425,7 +2425,7 @@
     <t>Smartphone Samsung Galaxy Ace Plus Preto - Android 2.3 Processador 1GHz Tela Touchscreen 3.7" Camera 5.0MP 3G Wi-Fi Memoria Interna 3GB Expansivel ate 32GB</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE PLUS</t>
+    <t>GALAXY ACE PLUS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A7 A700 Duos Desbloqueado Branco</t>
@@ -2443,19 +2443,19 @@
     <t>Smartphone Nokia Asha 302 Desbloqueado TIM Branco - GSM Sistema Operacional S40 Asha Processador 1GHz 3G Wi Fi Camera 3.2 MP</t>
   </si>
   <si>
-    <t>NOKIA ASHA 302</t>
+    <t>ASHA 302</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Pocket 2 Duos G110b Desbloqueado Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY POCKET 2 DUOS</t>
+    <t>GALAXY POCKET 2 DUOS</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy SIII GT-I9300 Desbloqueado</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY SIII GT</t>
+    <t>GALAXY SIII GT</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Note 3 Neo Duos Dual Chip Android 4.3 Tela 5.5" 16GB 3G Wi-Fi Camera de 8MP com Caneta S Pen - Branco</t>
@@ -2476,19 +2476,19 @@
     <t>Smartphone Samsung Galaxy Ace 4 Lite Duos Dual Chip Desbloqueado Android 4.4 Tela 4" 4GB 3G Wi-Fi Camera 3MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY ACE 4 LITE DUOS</t>
+    <t>GALAXY ACE 4 LITE DUOS</t>
   </si>
   <si>
     <t>Smartphone Alcatel POP 2 Single Chip Desbloqueado Android 4.4 Tela 4.5" Memoria Interna 8GB 4G Camera 5MP Branco</t>
   </si>
   <si>
-    <t>ALCATEL POP 2 SINGLE CHIP</t>
+    <t>POP 2 SINGLE CHIP</t>
   </si>
   <si>
     <t>Smartphone Multilaser MS1  Dual Chip Android 2.3 Tela 3.5" 512MB 3G Wi-Fi Camera 2MP - Branco e Rosa</t>
   </si>
   <si>
-    <t>MULTILASER MS1</t>
+    <t>MS1</t>
   </si>
   <si>
     <t>Smartphone LG L20 D100 Desbloqueado Vivo Android 4.4 Tela 3" 4GB 3G Wi-Fi Camera 2MP - Preto e Grafite</t>
@@ -2497,19 +2497,19 @@
     <t>Smartphone Dual Chip Positivo S440 Desbloqueado Android 4.4 Tela 4" 4GB 3G Wi-Fi Camera 5.0 - Preto</t>
   </si>
   <si>
-    <t>POSITIVO S440</t>
+    <t>S440</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Core 2 Desbloqueado Claro Android 4.4 Tela 4.5" 4GB 3G Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY CORE 2</t>
+    <t>GALAXY CORE 2</t>
   </si>
   <si>
     <t>Smartphone Positivo S400 GSM Desbloqueado Dual Chip Android 4.0 Tela 4" 4GB 3G Wi-Fi Camera 5MP - Preto + Cartao de 8GB</t>
   </si>
   <si>
-    <t>POSITIVO S400</t>
+    <t>S400</t>
   </si>
   <si>
     <t>Smartphone LG Triple L20 D107 Android 4.4 Tela 3" 4GB 3G Wi-Fi Camera 2MP - Preto e Grafite</t>
@@ -2548,13 +2548,13 @@
     <t>Smartphone Samsung Galaxy Pocket 2 G110b Preto 4gb, Wi-Fi, Gps, Camera 2mp, 3g, Android 4.4 Kit-Kat</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY POCKET 2</t>
+    <t>GALAXY POCKET 2</t>
   </si>
   <si>
     <t>Smartphone Sony Ericsson Xperia Neo V Desbloqueado Tim, Prata, Android 2.3, Tela 3.7", Camera de 5MP, 3G, Wi-Fi, Memoria Interna 320MB e Cartao de Memoria 2GB</t>
   </si>
   <si>
-    <t>SONY XPERIA NEO V</t>
+    <t>XPERIA NEO V</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia M2 Aqua Desbloqueado Android 4.4, Tela 4,8 Mem. 8gb Camera De 8mp</t>
@@ -2563,7 +2563,7 @@
     <t>Smartphone Positivo S350 GSM Desbloqueado Preto Android 2.3 Dual Chip Tela Touchscreen 3.5" Camera de 3MP 3G Wi Fi Memoria interna 512MB Cartao de 2GB</t>
   </si>
   <si>
-    <t>POSITIVO S350</t>
+    <t>S350</t>
   </si>
   <si>
     <t>Smartphone Positivo X800 Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 13MP - Branco</t>
@@ -2578,7 +2578,7 @@
     <t>Smartphone Multilaser Connect Dual Chip Branco e rosa. Camera de 3MP. 3G. WIFI</t>
   </si>
   <si>
-    <t>MULTILASER CONNECT</t>
+    <t>CONNECT</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Alpha Desbloqueado Android 4.4 Tela 4.7" 32GB 4G Wi-Fi Camera 12MP - Preto</t>
@@ -2587,7 +2587,7 @@
     <t>Smartphone Blu Studio C Mini D670l, Android 4.4, Dual Chip, Cam 5mp, Mem 4gb, Tela 4.7, 3g - Pret</t>
   </si>
   <si>
-    <t>BLU STUDIO C MINI</t>
+    <t>STUDIO C MINI</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto E Desbloqueado Android 4.4 Tela 4.3" 4GB 3G Wi-Fi Camera 5MP GPS - Preto</t>
@@ -2605,7 +2605,7 @@
     <t>Smartphone Samsung Galaxy Gran Neo Plus Duos Dual Chip Desbloqueado Android 4.4 Tela 5" 8GB 3G Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY GRAN NEO PLUS DUOS</t>
+    <t>GALAXY GRAN NEO PLUS DUOS</t>
   </si>
   <si>
     <t>Smartphone LG G2 lite Dual Chip Desbloqueado Android 4.4 Kit Kat 4.5 Polegadas 4GB 3G Wi-Fi Camera 8MP - Branco</t>
@@ -2614,7 +2614,7 @@
     <t>Smartphone Samsung Galaxy E7 Duos, Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY E7 DUOS</t>
+    <t>GALAXY E7 DUOS</t>
   </si>
   <si>
     <t>Smartphone Motorola Moto G 3a Geracao Colors HDTV Dual Chip Desbloqueado Android 5.1 Tela HD 5" Memoria Interna 16GB 4G Camera 13MP Processador Quad Core 1.4GHz - Branco</t>
@@ -2644,7 +2644,7 @@
     <t>Smartphone Blackberry Bold 9900. Desbloqueado. Tela 2.8". Camera 5.0MP. 3G. Wi Fi e Memoria Interna 768MB</t>
   </si>
   <si>
-    <t>BLACKBERRY BOLD</t>
+    <t>BOLD</t>
   </si>
   <si>
     <t>Smartphone Sony Xperia Z1 Desbloqueado Android 4.2 Tela 5" 16GB 4G Wi-Fi Camera 20MP - Preto</t>
@@ -2674,7 +2674,7 @@
     <t>Smartphone Blu Studio 6.0 Hd, Android 4.2, Dual Chip, Camera 8mp, Mem 4gb, Tela 6.0, 4g - Preto</t>
   </si>
   <si>
-    <t>BLU STUDIO 6.0 HD</t>
+    <t>STUDIO 6.0 HD</t>
   </si>
   <si>
     <t>Smartphone Blu Studio C Mini D670l, Android 4.4, Dual Chip, Cam 5mp, Mem 4gb, Tela 4.7, 3g - Azul</t>
@@ -2689,7 +2689,7 @@
     <t>Smartphone Positivo X400 Dual Chip Desbloqueado Android 4.4 Tela 5" 4GB 3G Wi-Fi Camera 5MP - Preto</t>
   </si>
   <si>
-    <t>POSITIVO X400</t>
+    <t>X400</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy Fame Duos Dual Chip Desbloqueado Android 4.1 Tela 3.5" 3G Wi-Fi Camera 5 MP - Grafite</t>
@@ -2716,7 +2716,7 @@
     <t>Smartphone Samsung Galaxy A7 Dual Chip Desbloqueado Android 4.4 Tela 5.5" 16GB 4G Wi-Fi Camera 13MP - Branco</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY A7</t>
+    <t>GALAXY A7</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A7 Duos Dual Chip Desbloqueado Android 4.4 Tela 5.5" 16GB Wi-Fi 4G Camera 13MP - Dourado</t>
@@ -2743,7 +2743,7 @@
     <t>Smartphone Positivo S480 Dual Chip Desbloqueado Android 4.4 Memoria Interna 8GB 3G Camera 8MP GPS - Preto</t>
   </si>
   <si>
-    <t>POSITIVO S480</t>
+    <t>S480</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 930 Desbloqueado Windows 8.1 32GB 4G Wi-Fi Camera 20MP - Preto</t>
@@ -2752,7 +2752,7 @@
     <t>Smartphone Samsung Galaxy SIII Duos Dual Chip Desbloqueado Claro Android 4.1 Tela 4.3" 8GB 3G Wi-Fi Camera 5MP - Azul</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY SIII DUOS</t>
+    <t>GALAXY SIII DUOS</t>
   </si>
   <si>
     <t>Smartphone Nokia Lumia 530 Desbloqueado Windows Phone 8.1 Tela 4" 4GB 3G Wi-Fi Camera 5MP - Preto + Capa Laranja</t>
@@ -2806,7 +2806,7 @@
     <t>Smartphone Samsung Galaxy E7 Dual Chip Desbloqueado Android 4.4 Tela 5.5" 16GB 4G Wi-Fi Camera 13MP - Preto</t>
   </si>
   <si>
-    <t>SAMSUNG GALAXY E7</t>
+    <t>GALAXY E7</t>
   </si>
   <si>
     <t>Smartphone Galaxy Gran Prime Duos Chip Desbloqueado Oi Android 4.4 Tela 5" 8GB 3G Wi-Fi Camera 8MP - Cinza</t>
@@ -3688,17 +3688,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E911"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A911" sqref="A911"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="85.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/matching/src/planilhas/telefonia-smartphone-classificados-ewerton.xlsx
+++ b/matching/src/planilhas/telefonia-smartphone-classificados-ewerton.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21075" windowHeight="10545"/>
+    <workbookView xWindow="220" yWindow="80" windowWidth="28440" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="telefonia-smartphones-marcados-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3346,48 +3351,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3688,18 +3693,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A882" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="85.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="103" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3801,7 +3808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4005,7 +4012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -4192,7 +4199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -4277,7 +4284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -4294,7 +4301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -4311,7 +4318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4345,7 +4352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -4430,7 +4437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -4464,7 +4471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -4515,7 +4522,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>99</v>
       </c>
@@ -4532,7 +4539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4566,7 +4573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -4583,7 +4590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -4600,7 +4607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -4617,7 +4624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -4634,7 +4641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -4668,7 +4675,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -4702,7 +4709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -4719,7 +4726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -4736,7 +4743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -4753,7 +4760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -4770,7 +4777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -4787,7 +4794,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -4804,7 +4811,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -4838,7 +4845,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -4855,7 +4862,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -4872,7 +4879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -4889,7 +4896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -4906,7 +4913,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -4940,7 +4947,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -4957,7 +4964,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -4974,7 +4981,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -4991,7 +4998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -5008,7 +5015,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -5042,7 +5049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>133</v>
       </c>
@@ -5059,7 +5066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -5076,7 +5083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>136</v>
       </c>
@@ -5093,7 +5100,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -5110,7 +5117,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -5127,7 +5134,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -5144,7 +5151,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>138</v>
       </c>
@@ -5161,7 +5168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>140</v>
       </c>
@@ -5178,7 +5185,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -5195,7 +5202,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -5212,7 +5219,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>146</v>
       </c>
@@ -5229,7 +5236,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>148</v>
       </c>
@@ -5246,7 +5253,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>150</v>
       </c>
@@ -5263,7 +5270,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>152</v>
       </c>
@@ -5280,7 +5287,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -5297,7 +5304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -5314,7 +5321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -5348,7 +5355,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -5365,7 +5372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>162</v>
       </c>
@@ -5382,7 +5389,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>167</v>
       </c>
@@ -5416,7 +5423,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>170</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -5467,7 +5474,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -5484,7 +5491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -5501,7 +5508,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -5518,7 +5525,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>182</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5552,7 +5559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -5569,7 +5576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -5586,7 +5593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>185</v>
       </c>
@@ -5603,7 +5610,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>187</v>
       </c>
@@ -5620,7 +5627,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>189</v>
       </c>
@@ -5637,7 +5644,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>191</v>
       </c>
@@ -5654,7 +5661,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>193</v>
       </c>
@@ -5671,7 +5678,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>195</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>196</v>
       </c>
@@ -5705,7 +5712,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>197</v>
       </c>
@@ -5722,7 +5729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>198</v>
       </c>
@@ -5739,7 +5746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>200</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -5773,7 +5780,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>204</v>
       </c>
@@ -5790,7 +5797,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -5824,7 +5831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>210</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>212</v>
       </c>
@@ -5858,7 +5865,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>214</v>
       </c>
@@ -5875,7 +5882,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>216</v>
       </c>
@@ -5892,7 +5899,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>218</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>220</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -5943,7 +5950,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>225</v>
       </c>
@@ -5960,7 +5967,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>226</v>
       </c>
@@ -5977,7 +5984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>227</v>
       </c>
@@ -5994,7 +6001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>230</v>
       </c>
@@ -6011,7 +6018,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>232</v>
       </c>
@@ -6028,7 +6035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>233</v>
       </c>
@@ -6045,7 +6052,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>235</v>
       </c>
@@ -6062,7 +6069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>236</v>
       </c>
@@ -6079,7 +6086,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>238</v>
       </c>
@@ -6096,7 +6103,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>239</v>
       </c>
@@ -6113,7 +6120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>240</v>
       </c>
@@ -6130,7 +6137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>242</v>
       </c>
@@ -6147,7 +6154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>243</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>244</v>
       </c>
@@ -6181,7 +6188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>245</v>
       </c>
@@ -6198,7 +6205,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>246</v>
       </c>
@@ -6215,7 +6222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>247</v>
       </c>
@@ -6232,7 +6239,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>249</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>251</v>
       </c>
@@ -6266,7 +6273,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>253</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>255</v>
       </c>
@@ -6300,7 +6307,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>257</v>
       </c>
@@ -6317,7 +6324,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>258</v>
       </c>
@@ -6334,7 +6341,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>260</v>
       </c>
@@ -6351,7 +6358,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>261</v>
       </c>
@@ -6368,7 +6375,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>262</v>
       </c>
@@ -6385,7 +6392,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>264</v>
       </c>
@@ -6402,7 +6409,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>265</v>
       </c>
@@ -6419,7 +6426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>266</v>
       </c>
@@ -6436,7 +6443,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>268</v>
       </c>
@@ -6453,7 +6460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>270</v>
       </c>
@@ -6470,7 +6477,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>272</v>
       </c>
@@ -6487,7 +6494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>273</v>
       </c>
@@ -6504,7 +6511,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>275</v>
       </c>
@@ -6521,7 +6528,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>276</v>
       </c>
@@ -6538,7 +6545,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>277</v>
       </c>
@@ -6555,7 +6562,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>279</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>280</v>
       </c>
@@ -6589,7 +6596,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>282</v>
       </c>
@@ -6606,7 +6613,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>284</v>
       </c>
@@ -6623,7 +6630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>285</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>286</v>
       </c>
@@ -6657,7 +6664,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>287</v>
       </c>
@@ -6674,7 +6681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>73</v>
       </c>
@@ -6691,7 +6698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>288</v>
       </c>
@@ -6708,7 +6715,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>289</v>
       </c>
@@ -6725,7 +6732,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -6742,7 +6749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -6759,7 +6766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>292</v>
       </c>
@@ -6776,7 +6783,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>293</v>
       </c>
@@ -6793,7 +6800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>294</v>
       </c>
@@ -6810,7 +6817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -6827,7 +6834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>295</v>
       </c>
@@ -6844,7 +6851,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>297</v>
       </c>
@@ -6861,7 +6868,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>298</v>
       </c>
@@ -6878,7 +6885,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>299</v>
       </c>
@@ -6895,7 +6902,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -6912,7 +6919,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>301</v>
       </c>
@@ -6929,7 +6936,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>303</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>305</v>
       </c>
@@ -6963,7 +6970,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>306</v>
       </c>
@@ -6980,7 +6987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>307</v>
       </c>
@@ -6997,7 +7004,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>308</v>
       </c>
@@ -7014,7 +7021,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>309</v>
       </c>
@@ -7031,7 +7038,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>311</v>
       </c>
@@ -7048,7 +7055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>312</v>
       </c>
@@ -7065,7 +7072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>313</v>
       </c>
@@ -7082,7 +7089,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>315</v>
       </c>
@@ -7099,7 +7106,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>317</v>
       </c>
@@ -7116,7 +7123,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>319</v>
       </c>
@@ -7133,7 +7140,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>321</v>
       </c>
@@ -7150,7 +7157,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>322</v>
       </c>
@@ -7167,7 +7174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>323</v>
       </c>
@@ -7184,7 +7191,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>325</v>
       </c>
@@ -7201,7 +7208,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>326</v>
       </c>
@@ -7218,7 +7225,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>327</v>
       </c>
@@ -7235,7 +7242,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>328</v>
       </c>
@@ -7252,7 +7259,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>330</v>
       </c>
@@ -7269,7 +7276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>331</v>
       </c>
@@ -7286,7 +7293,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>332</v>
       </c>
@@ -7303,7 +7310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>333</v>
       </c>
@@ -7320,7 +7327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>334</v>
       </c>
@@ -7337,7 +7344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>335</v>
       </c>
@@ -7354,7 +7361,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>337</v>
       </c>
@@ -7371,7 +7378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>338</v>
       </c>
@@ -7388,7 +7395,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -7405,7 +7412,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>342</v>
       </c>
@@ -7422,7 +7429,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>343</v>
       </c>
@@ -7439,7 +7446,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>345</v>
       </c>
@@ -7456,7 +7463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>346</v>
       </c>
@@ -7473,7 +7480,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>348</v>
       </c>
@@ -7490,7 +7497,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>350</v>
       </c>
@@ -7507,7 +7514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>351</v>
       </c>
@@ -7524,7 +7531,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>352</v>
       </c>
@@ -7541,7 +7548,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>160</v>
       </c>
@@ -7558,7 +7565,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>353</v>
       </c>
@@ -7575,7 +7582,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>354</v>
       </c>
@@ -7592,7 +7599,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>356</v>
       </c>
@@ -7609,7 +7616,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>160</v>
       </c>
@@ -7626,7 +7633,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>129</v>
       </c>
@@ -7643,7 +7650,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>358</v>
       </c>
@@ -7660,7 +7667,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>360</v>
       </c>
@@ -7677,7 +7684,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>361</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>362</v>
       </c>
@@ -7711,7 +7718,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>142</v>
       </c>
@@ -7728,7 +7735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>363</v>
       </c>
@@ -7745,7 +7752,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>365</v>
       </c>
@@ -7762,7 +7769,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>366</v>
       </c>
@@ -7779,7 +7786,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>368</v>
       </c>
@@ -7796,7 +7803,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>370</v>
       </c>
@@ -7813,7 +7820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>371</v>
       </c>
@@ -7830,7 +7837,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>373</v>
       </c>
@@ -7847,7 +7854,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>374</v>
       </c>
@@ -7864,7 +7871,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>142</v>
       </c>
@@ -7881,7 +7888,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>376</v>
       </c>
@@ -7898,7 +7905,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>378</v>
       </c>
@@ -7915,7 +7922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>379</v>
       </c>
@@ -7932,7 +7939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>142</v>
       </c>
@@ -7949,7 +7956,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>380</v>
       </c>
@@ -7966,7 +7973,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>382</v>
       </c>
@@ -7983,7 +7990,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>384</v>
       </c>
@@ -8000,7 +8007,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>386</v>
       </c>
@@ -8017,7 +8024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>387</v>
       </c>
@@ -8034,7 +8041,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>114</v>
       </c>
@@ -8051,7 +8058,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>389</v>
       </c>
@@ -8068,7 +8075,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>391</v>
       </c>
@@ -8085,7 +8092,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>358</v>
       </c>
@@ -8102,7 +8109,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>393</v>
       </c>
@@ -8119,7 +8126,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>396</v>
       </c>
@@ -8136,7 +8143,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>398</v>
       </c>
@@ -8153,7 +8160,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>400</v>
       </c>
@@ -8170,7 +8177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>401</v>
       </c>
@@ -8187,7 +8194,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>402</v>
       </c>
@@ -8204,7 +8211,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>134</v>
       </c>
@@ -8221,7 +8228,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>403</v>
       </c>
@@ -8238,7 +8245,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>358</v>
       </c>
@@ -8255,7 +8262,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>404</v>
       </c>
@@ -8272,7 +8279,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>405</v>
       </c>
@@ -8289,7 +8296,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>406</v>
       </c>
@@ -8306,7 +8313,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>376</v>
       </c>
@@ -8323,7 +8330,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>407</v>
       </c>
@@ -8340,7 +8347,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>408</v>
       </c>
@@ -8357,7 +8364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>409</v>
       </c>
@@ -8374,7 +8381,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>411</v>
       </c>
@@ -8391,7 +8398,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>413</v>
       </c>
@@ -8408,7 +8415,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>415</v>
       </c>
@@ -8425,7 +8432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>417</v>
       </c>
@@ -8442,7 +8449,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>404</v>
       </c>
@@ -8459,7 +8466,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>419</v>
       </c>
@@ -8476,7 +8483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>117</v>
       </c>
@@ -8493,7 +8500,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>120</v>
       </c>
@@ -8510,7 +8517,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>420</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>226</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>421</v>
       </c>
@@ -8561,7 +8568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>422</v>
       </c>
@@ -8578,7 +8585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>423</v>
       </c>
@@ -8595,7 +8602,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>424</v>
       </c>
@@ -8612,7 +8619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>425</v>
       </c>
@@ -8629,7 +8636,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>427</v>
       </c>
@@ -8646,7 +8653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>428</v>
       </c>
@@ -8663,7 +8670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>183</v>
       </c>
@@ -8680,7 +8687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>429</v>
       </c>
@@ -8697,7 +8704,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>431</v>
       </c>
@@ -8714,7 +8721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>121</v>
       </c>
@@ -8731,7 +8738,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>432</v>
       </c>
@@ -8748,7 +8755,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>434</v>
       </c>
@@ -8765,7 +8772,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>436</v>
       </c>
@@ -8782,7 +8789,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>437</v>
       </c>
@@ -8799,7 +8806,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>439</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>440</v>
       </c>
@@ -8833,7 +8840,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>441</v>
       </c>
@@ -8850,7 +8857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>442</v>
       </c>
@@ -8867,7 +8874,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>443</v>
       </c>
@@ -8884,7 +8891,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>444</v>
       </c>
@@ -8901,7 +8908,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>445</v>
       </c>
@@ -8918,7 +8925,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>447</v>
       </c>
@@ -8935,7 +8942,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>448</v>
       </c>
@@ -8952,7 +8959,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>450</v>
       </c>
@@ -8969,7 +8976,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>452</v>
       </c>
@@ -8986,7 +8993,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>448</v>
       </c>
@@ -9003,7 +9010,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>454</v>
       </c>
@@ -9020,7 +9027,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>403</v>
       </c>
@@ -9037,7 +9044,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>455</v>
       </c>
@@ -9054,7 +9061,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>456</v>
       </c>
@@ -9071,7 +9078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>457</v>
       </c>
@@ -9088,7 +9095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>458</v>
       </c>
@@ -9105,7 +9112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>459</v>
       </c>
@@ -9122,7 +9129,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>461</v>
       </c>
@@ -9139,7 +9146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>462</v>
       </c>
@@ -9156,7 +9163,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>464</v>
       </c>
@@ -9173,7 +9180,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>465</v>
       </c>
@@ -9190,7 +9197,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>466</v>
       </c>
@@ -9207,7 +9214,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>468</v>
       </c>
@@ -9224,7 +9231,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>469</v>
       </c>
@@ -9241,7 +9248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>470</v>
       </c>
@@ -9258,7 +9265,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>471</v>
       </c>
@@ -9275,7 +9282,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>473</v>
       </c>
@@ -9292,7 +9299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>474</v>
       </c>
@@ -9309,7 +9316,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>475</v>
       </c>
@@ -9326,7 +9333,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>477</v>
       </c>
@@ -9343,7 +9350,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>479</v>
       </c>
@@ -9360,7 +9367,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>480</v>
       </c>
@@ -9377,7 +9384,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>481</v>
       </c>
@@ -9394,7 +9401,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>482</v>
       </c>
@@ -9411,7 +9418,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>360</v>
       </c>
@@ -9428,7 +9435,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>483</v>
       </c>
@@ -9445,7 +9452,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>484</v>
       </c>
@@ -9462,7 +9469,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>486</v>
       </c>
@@ -9479,7 +9486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>487</v>
       </c>
@@ -9496,7 +9503,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>488</v>
       </c>
@@ -9513,7 +9520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>489</v>
       </c>
@@ -9530,7 +9537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>490</v>
       </c>
@@ -9547,7 +9554,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>114</v>
       </c>
@@ -9564,7 +9571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>160</v>
       </c>
@@ -9581,7 +9588,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>491</v>
       </c>
@@ -9598,7 +9605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>270</v>
       </c>
@@ -9615,7 +9622,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>298</v>
       </c>
@@ -9632,7 +9639,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>492</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>493</v>
       </c>
@@ -9666,7 +9673,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -9683,7 +9690,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>494</v>
       </c>
@@ -9700,7 +9707,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>495</v>
       </c>
@@ -9717,7 +9724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>496</v>
       </c>
@@ -9734,7 +9741,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>498</v>
       </c>
@@ -9751,7 +9758,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>499</v>
       </c>
@@ -9768,7 +9775,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>366</v>
       </c>
@@ -9785,7 +9792,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>502</v>
       </c>
@@ -9802,7 +9809,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>503</v>
       </c>
@@ -9819,7 +9826,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>505</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>112</v>
       </c>
@@ -9853,7 +9860,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>131</v>
       </c>
@@ -9870,7 +9877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>112</v>
       </c>
@@ -9887,7 +9894,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>398</v>
       </c>
@@ -9904,7 +9911,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>506</v>
       </c>
@@ -9921,7 +9928,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>508</v>
       </c>
@@ -9938,7 +9945,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>112</v>
       </c>
@@ -9955,7 +9962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>238</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>510</v>
       </c>
@@ -9989,7 +9996,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>511</v>
       </c>
@@ -10006,7 +10013,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>112</v>
       </c>
@@ -10023,7 +10030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>127</v>
       </c>
@@ -10040,7 +10047,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>512</v>
       </c>
@@ -10057,7 +10064,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>513</v>
       </c>
@@ -10074,7 +10081,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>515</v>
       </c>
@@ -10091,7 +10098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>516</v>
       </c>
@@ -10108,7 +10115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>517</v>
       </c>
@@ -10125,7 +10132,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>519</v>
       </c>
@@ -10142,7 +10149,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>521</v>
       </c>
@@ -10159,7 +10166,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>360</v>
       </c>
@@ -10176,7 +10183,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>522</v>
       </c>
@@ -10193,7 +10200,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>524</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>232</v>
       </c>
@@ -10227,7 +10234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>525</v>
       </c>
@@ -10244,7 +10251,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>526</v>
       </c>
@@ -10261,7 +10268,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>528</v>
       </c>
@@ -10278,7 +10285,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>529</v>
       </c>
@@ -10295,7 +10302,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" t="s">
         <v>531</v>
       </c>
@@ -10312,7 +10319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" t="s">
         <v>532</v>
       </c>
@@ -10329,7 +10336,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" t="s">
         <v>533</v>
       </c>
@@ -10346,7 +10353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>534</v>
       </c>
@@ -10363,7 +10370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>535</v>
       </c>
@@ -10380,7 +10387,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>537</v>
       </c>
@@ -10397,7 +10404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>524</v>
       </c>
@@ -10414,7 +10421,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>245</v>
       </c>
@@ -10431,7 +10438,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>538</v>
       </c>
@@ -10448,7 +10455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>539</v>
       </c>
@@ -10465,7 +10472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>389</v>
       </c>
@@ -10482,7 +10489,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>540</v>
       </c>
@@ -10499,7 +10506,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>541</v>
       </c>
@@ -10516,7 +10523,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>542</v>
       </c>
@@ -10533,7 +10540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>114</v>
       </c>
@@ -10550,7 +10557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>276</v>
       </c>
@@ -10567,7 +10574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>543</v>
       </c>
@@ -10584,7 +10591,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>545</v>
       </c>
@@ -10601,7 +10608,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>321</v>
       </c>
@@ -10618,7 +10625,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>547</v>
       </c>
@@ -10635,7 +10642,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>548</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>457</v>
       </c>
@@ -10669,7 +10676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>356</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>549</v>
       </c>
@@ -10703,7 +10710,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>471</v>
       </c>
@@ -10720,7 +10727,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>550</v>
       </c>
@@ -10737,7 +10744,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>552</v>
       </c>
@@ -10754,7 +10761,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>553</v>
       </c>
@@ -10771,7 +10778,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>270</v>
       </c>
@@ -10788,7 +10795,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>554</v>
       </c>
@@ -10805,7 +10812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>555</v>
       </c>
@@ -10822,7 +10829,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>116</v>
       </c>
@@ -10839,7 +10846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" t="s">
         <v>556</v>
       </c>
@@ -10856,7 +10863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>258</v>
       </c>
@@ -10873,7 +10880,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>557</v>
       </c>
@@ -10890,7 +10897,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" t="s">
         <v>559</v>
       </c>
@@ -10907,7 +10914,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" t="s">
         <v>522</v>
       </c>
@@ -10924,7 +10931,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>561</v>
       </c>
@@ -10941,7 +10948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>562</v>
       </c>
@@ -10958,7 +10965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" t="s">
         <v>411</v>
       </c>
@@ -10975,7 +10982,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" t="s">
         <v>563</v>
       </c>
@@ -10992,7 +10999,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>565</v>
       </c>
@@ -11009,7 +11016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>439</v>
       </c>
@@ -11026,7 +11033,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>566</v>
       </c>
@@ -11043,7 +11050,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" t="s">
         <v>568</v>
       </c>
@@ -11060,7 +11067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" t="s">
         <v>569</v>
       </c>
@@ -11077,7 +11084,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" t="s">
         <v>570</v>
       </c>
@@ -11094,7 +11101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" t="s">
         <v>571</v>
       </c>
@@ -11111,7 +11118,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" t="s">
         <v>548</v>
       </c>
@@ -11128,7 +11135,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" t="s">
         <v>230</v>
       </c>
@@ -11145,7 +11152,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" t="s">
         <v>573</v>
       </c>
@@ -11162,7 +11169,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" t="s">
         <v>575</v>
       </c>
@@ -11179,7 +11186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" t="s">
         <v>576</v>
       </c>
@@ -11196,7 +11203,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" t="s">
         <v>531</v>
       </c>
@@ -11213,7 +11220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" t="s">
         <v>578</v>
       </c>
@@ -11230,7 +11237,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" t="s">
         <v>579</v>
       </c>
@@ -11247,7 +11254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" t="s">
         <v>524</v>
       </c>
@@ -11264,7 +11271,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>532</v>
       </c>
@@ -11281,7 +11288,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" t="s">
         <v>580</v>
       </c>
@@ -11298,7 +11305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" t="s">
         <v>581</v>
       </c>
@@ -11315,7 +11322,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5">
       <c r="A449" t="s">
         <v>127</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5">
       <c r="A450" t="s">
         <v>579</v>
       </c>
@@ -11349,7 +11356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5">
       <c r="A451" t="s">
         <v>583</v>
       </c>
@@ -11366,7 +11373,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5">
       <c r="A452" t="s">
         <v>554</v>
       </c>
@@ -11383,7 +11390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5">
       <c r="A453" t="s">
         <v>585</v>
       </c>
@@ -11400,7 +11407,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>356</v>
       </c>
@@ -11417,7 +11424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5">
       <c r="A455" t="s">
         <v>235</v>
       </c>
@@ -11434,7 +11441,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5">
       <c r="A456" t="s">
         <v>495</v>
       </c>
@@ -11451,7 +11458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5">
       <c r="A457" t="s">
         <v>420</v>
       </c>
@@ -11468,7 +11475,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5">
       <c r="A458" t="s">
         <v>587</v>
       </c>
@@ -11485,7 +11492,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5">
       <c r="A459" t="s">
         <v>588</v>
       </c>
@@ -11502,7 +11509,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5">
       <c r="A460" t="s">
         <v>589</v>
       </c>
@@ -11519,7 +11526,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5">
       <c r="A461" t="s">
         <v>398</v>
       </c>
@@ -11536,7 +11543,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5">
       <c r="A462" t="s">
         <v>498</v>
       </c>
@@ -11553,7 +11560,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5">
       <c r="A463" t="s">
         <v>404</v>
       </c>
@@ -11570,7 +11577,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5">
       <c r="A464" t="s">
         <v>590</v>
       </c>
@@ -11587,7 +11594,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" t="s">
         <v>419</v>
       </c>
@@ -11604,7 +11611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" t="s">
         <v>592</v>
       </c>
@@ -11621,7 +11628,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" t="s">
         <v>593</v>
       </c>
@@ -11638,7 +11645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" t="s">
         <v>366</v>
       </c>
@@ -11655,7 +11662,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" t="s">
         <v>479</v>
       </c>
@@ -11672,7 +11679,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" t="s">
         <v>594</v>
       </c>
@@ -11689,7 +11696,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" t="s">
         <v>596</v>
       </c>
@@ -11706,7 +11713,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" t="s">
         <v>581</v>
       </c>
@@ -11723,7 +11730,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" t="s">
         <v>413</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" t="s">
         <v>597</v>
       </c>
@@ -11757,7 +11764,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" t="s">
         <v>538</v>
       </c>
@@ -11774,7 +11781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" t="s">
         <v>358</v>
       </c>
@@ -11791,7 +11798,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" t="s">
         <v>486</v>
       </c>
@@ -11808,7 +11815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" t="s">
         <v>598</v>
       </c>
@@ -11825,7 +11832,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" t="s">
         <v>599</v>
       </c>
@@ -11842,7 +11849,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" t="s">
         <v>238</v>
       </c>
@@ -11859,7 +11866,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" t="s">
         <v>563</v>
       </c>
@@ -11876,7 +11883,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" t="s">
         <v>600</v>
       </c>
@@ -11893,7 +11900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" t="s">
         <v>601</v>
       </c>
@@ -11910,7 +11917,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" t="s">
         <v>602</v>
       </c>
@@ -11927,7 +11934,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" t="s">
         <v>603</v>
       </c>
@@ -11944,7 +11951,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" t="s">
         <v>604</v>
       </c>
@@ -11961,7 +11968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" t="s">
         <v>605</v>
       </c>
@@ -11978,7 +11985,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" t="s">
         <v>606</v>
       </c>
@@ -11995,7 +12002,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" t="s">
         <v>607</v>
       </c>
@@ -12012,7 +12019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" t="s">
         <v>537</v>
       </c>
@@ -12029,7 +12036,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" t="s">
         <v>608</v>
       </c>
@@ -12046,7 +12053,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" t="s">
         <v>549</v>
       </c>
@@ -12063,7 +12070,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" t="s">
         <v>609</v>
       </c>
@@ -12080,7 +12087,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" t="s">
         <v>611</v>
       </c>
@@ -12097,7 +12104,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" t="s">
         <v>613</v>
       </c>
@@ -12114,7 +12121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" t="s">
         <v>579</v>
       </c>
@@ -12131,7 +12138,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5">
       <c r="A497" t="s">
         <v>235</v>
       </c>
@@ -12148,7 +12155,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5">
       <c r="A498" t="s">
         <v>579</v>
       </c>
@@ -12165,7 +12172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5">
       <c r="A499" t="s">
         <v>127</v>
       </c>
@@ -12182,7 +12189,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5">
       <c r="A500" t="s">
         <v>235</v>
       </c>
@@ -12199,7 +12206,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5">
       <c r="A501" t="s">
         <v>614</v>
       </c>
@@ -12216,7 +12223,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5">
       <c r="A502" t="s">
         <v>235</v>
       </c>
@@ -12233,7 +12240,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5">
       <c r="A503" t="s">
         <v>579</v>
       </c>
@@ -12250,7 +12257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5">
       <c r="A504" t="s">
         <v>579</v>
       </c>
@@ -12267,7 +12274,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5">
       <c r="A505" t="s">
         <v>114</v>
       </c>
@@ -12284,7 +12291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5">
       <c r="A506" t="s">
         <v>579</v>
       </c>
@@ -12301,7 +12308,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5">
       <c r="A507" t="s">
         <v>127</v>
       </c>
@@ -12318,7 +12325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5">
       <c r="A508" t="s">
         <v>114</v>
       </c>
@@ -12335,7 +12342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5">
       <c r="A509" t="s">
         <v>235</v>
       </c>
@@ -12352,7 +12359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5">
       <c r="A510" t="s">
         <v>420</v>
       </c>
@@ -12369,7 +12376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5">
       <c r="A511" t="s">
         <v>127</v>
       </c>
@@ -12386,7 +12393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5">
       <c r="A512" t="s">
         <v>127</v>
       </c>
@@ -12403,7 +12410,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5">
       <c r="A513" t="s">
         <v>616</v>
       </c>
@@ -12420,7 +12427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5">
       <c r="A514" t="s">
         <v>499</v>
       </c>
@@ -12437,7 +12444,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5">
       <c r="A515" t="s">
         <v>353</v>
       </c>
@@ -12454,7 +12461,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5">
       <c r="A516" t="s">
         <v>617</v>
       </c>
@@ -12471,7 +12478,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5">
       <c r="A517" t="s">
         <v>619</v>
       </c>
@@ -12488,7 +12495,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5">
       <c r="A518" t="s">
         <v>620</v>
       </c>
@@ -12505,7 +12512,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5">
       <c r="A519" t="s">
         <v>621</v>
       </c>
@@ -12522,7 +12529,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5">
       <c r="A520" t="s">
         <v>245</v>
       </c>
@@ -12539,7 +12546,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5">
       <c r="A521" t="s">
         <v>522</v>
       </c>
@@ -12556,7 +12563,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5">
       <c r="A522" t="s">
         <v>622</v>
       </c>
@@ -12573,7 +12580,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5">
       <c r="A523" t="s">
         <v>624</v>
       </c>
@@ -12590,7 +12597,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5">
       <c r="A524" t="s">
         <v>625</v>
       </c>
@@ -12607,7 +12614,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5">
       <c r="A525" t="s">
         <v>458</v>
       </c>
@@ -12624,7 +12631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5">
       <c r="A526" t="s">
         <v>627</v>
       </c>
@@ -12641,7 +12648,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5">
       <c r="A527" t="s">
         <v>628</v>
       </c>
@@ -12658,7 +12665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5">
       <c r="A528" t="s">
         <v>374</v>
       </c>
@@ -12675,7 +12682,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" t="s">
         <v>160</v>
       </c>
@@ -12692,7 +12699,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" t="s">
         <v>542</v>
       </c>
@@ -12709,7 +12716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" t="s">
         <v>629</v>
       </c>
@@ -12726,7 +12733,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" t="s">
         <v>630</v>
       </c>
@@ -12743,7 +12750,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" t="s">
         <v>631</v>
       </c>
@@ -12760,7 +12767,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" t="s">
         <v>632</v>
       </c>
@@ -12777,7 +12784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" t="s">
         <v>633</v>
       </c>
@@ -12794,7 +12801,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" t="s">
         <v>634</v>
       </c>
@@ -12811,7 +12818,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" t="s">
         <v>636</v>
       </c>
@@ -12828,7 +12835,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" t="s">
         <v>455</v>
       </c>
@@ -12845,7 +12852,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" t="s">
         <v>638</v>
       </c>
@@ -12862,7 +12869,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" t="s">
         <v>640</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" t="s">
         <v>641</v>
       </c>
@@ -12896,7 +12903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" t="s">
         <v>642</v>
       </c>
@@ -12913,7 +12920,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" t="s">
         <v>645</v>
       </c>
@@ -12930,7 +12937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" t="s">
         <v>529</v>
       </c>
@@ -12947,7 +12954,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" t="s">
         <v>538</v>
       </c>
@@ -12964,7 +12971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" t="s">
         <v>646</v>
       </c>
@@ -12981,7 +12988,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" t="s">
         <v>647</v>
       </c>
@@ -12998,7 +13005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" t="s">
         <v>648</v>
       </c>
@@ -13015,7 +13022,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" t="s">
         <v>649</v>
       </c>
@@ -13032,7 +13039,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" t="s">
         <v>538</v>
       </c>
@@ -13049,7 +13056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" t="s">
         <v>650</v>
       </c>
@@ -13066,7 +13073,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" t="s">
         <v>235</v>
       </c>
@@ -13083,7 +13090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" t="s">
         <v>652</v>
       </c>
@@ -13100,7 +13107,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" t="s">
         <v>654</v>
       </c>
@@ -13117,7 +13124,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" t="s">
         <v>656</v>
       </c>
@@ -13134,7 +13141,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" t="s">
         <v>657</v>
       </c>
@@ -13151,7 +13158,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" t="s">
         <v>659</v>
       </c>
@@ -13168,7 +13175,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" t="s">
         <v>661</v>
       </c>
@@ -13185,7 +13192,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" t="s">
         <v>662</v>
       </c>
@@ -13202,7 +13209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" t="s">
         <v>663</v>
       </c>
@@ -13219,7 +13226,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" t="s">
         <v>664</v>
       </c>
@@ -13236,7 +13243,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" t="s">
         <v>665</v>
       </c>
@@ -13253,7 +13260,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" t="s">
         <v>555</v>
       </c>
@@ -13270,7 +13277,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" t="s">
         <v>667</v>
       </c>
@@ -13287,7 +13294,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" t="s">
         <v>175</v>
       </c>
@@ -13304,7 +13311,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" t="s">
         <v>668</v>
       </c>
@@ -13321,7 +13328,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" t="s">
         <v>387</v>
       </c>
@@ -13338,7 +13345,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" t="s">
         <v>670</v>
       </c>
@@ -13355,7 +13362,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" t="s">
         <v>353</v>
       </c>
@@ -13372,7 +13379,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" t="s">
         <v>672</v>
       </c>
@@ -13389,7 +13396,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" t="s">
         <v>541</v>
       </c>
@@ -13406,7 +13413,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" t="s">
         <v>674</v>
       </c>
@@ -13423,7 +13430,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" t="s">
         <v>545</v>
       </c>
@@ -13440,7 +13447,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" t="s">
         <v>477</v>
       </c>
@@ -13457,7 +13464,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" t="s">
         <v>502</v>
       </c>
@@ -13474,7 +13481,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" t="s">
         <v>675</v>
       </c>
@@ -13491,7 +13498,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5">
       <c r="A577" t="s">
         <v>676</v>
       </c>
@@ -13508,7 +13515,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5">
       <c r="A578" t="s">
         <v>678</v>
       </c>
@@ -13525,7 +13532,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5">
       <c r="A579" t="s">
         <v>679</v>
       </c>
@@ -13542,7 +13549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5">
       <c r="A580" t="s">
         <v>680</v>
       </c>
@@ -13559,7 +13566,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5">
       <c r="A581" t="s">
         <v>682</v>
       </c>
@@ -13576,7 +13583,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5">
       <c r="A582" t="s">
         <v>683</v>
       </c>
@@ -13593,7 +13600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5">
       <c r="A583" t="s">
         <v>684</v>
       </c>
@@ -13610,7 +13617,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5">
       <c r="A584" t="s">
         <v>685</v>
       </c>
@@ -13627,7 +13634,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5">
       <c r="A585" t="s">
         <v>686</v>
       </c>
@@ -13644,7 +13651,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5">
       <c r="A586" t="s">
         <v>688</v>
       </c>
@@ -13661,7 +13668,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5">
       <c r="A587" t="s">
         <v>400</v>
       </c>
@@ -13678,7 +13685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5">
       <c r="A588" t="s">
         <v>689</v>
       </c>
@@ -13695,7 +13702,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5">
       <c r="A589" t="s">
         <v>511</v>
       </c>
@@ -13712,7 +13719,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5">
       <c r="A590" t="s">
         <v>371</v>
       </c>
@@ -13729,7 +13736,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -13746,7 +13753,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5">
       <c r="A592" t="s">
         <v>690</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5">
       <c r="A593" t="s">
         <v>538</v>
       </c>
@@ -13780,7 +13787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5">
       <c r="A594" t="s">
         <v>123</v>
       </c>
@@ -13797,7 +13804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5">
       <c r="A595" t="s">
         <v>691</v>
       </c>
@@ -13814,7 +13821,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5">
       <c r="A596" t="s">
         <v>692</v>
       </c>
@@ -13831,7 +13838,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5">
       <c r="A597" t="s">
         <v>693</v>
       </c>
@@ -13848,7 +13855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5">
       <c r="A598" t="s">
         <v>694</v>
       </c>
@@ -13865,7 +13872,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -13882,7 +13889,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5">
       <c r="A600" t="s">
         <v>696</v>
       </c>
@@ -13899,7 +13906,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5">
       <c r="A601" t="s">
         <v>117</v>
       </c>
@@ -13916,7 +13923,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5">
       <c r="A602" t="s">
         <v>698</v>
       </c>
@@ -13933,7 +13940,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5">
       <c r="A603" t="s">
         <v>700</v>
       </c>
@@ -13950,7 +13957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5">
       <c r="A604" t="s">
         <v>701</v>
       </c>
@@ -13967,7 +13974,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5">
       <c r="A605" t="s">
         <v>703</v>
       </c>
@@ -13984,7 +13991,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5">
       <c r="A606" t="s">
         <v>396</v>
       </c>
@@ -14001,7 +14008,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5">
       <c r="A607" t="s">
         <v>704</v>
       </c>
@@ -14018,7 +14025,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5">
       <c r="A608" t="s">
         <v>706</v>
       </c>
@@ -14035,7 +14042,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5">
       <c r="A609" t="s">
         <v>707</v>
       </c>
@@ -14052,7 +14059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5">
       <c r="A610" t="s">
         <v>708</v>
       </c>
@@ -14069,7 +14076,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5">
       <c r="A611" t="s">
         <v>709</v>
       </c>
@@ -14086,7 +14093,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5">
       <c r="A612" t="s">
         <v>711</v>
       </c>
@@ -14103,7 +14110,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5">
       <c r="A613" t="s">
         <v>713</v>
       </c>
@@ -14120,7 +14127,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5">
       <c r="A614" t="s">
         <v>715</v>
       </c>
@@ -14137,7 +14144,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5">
       <c r="A615" t="s">
         <v>627</v>
       </c>
@@ -14154,7 +14161,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5">
       <c r="A616" t="s">
         <v>526</v>
       </c>
@@ -14171,7 +14178,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5">
       <c r="A617" t="s">
         <v>717</v>
       </c>
@@ -14188,7 +14195,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5">
       <c r="A618" t="s">
         <v>719</v>
       </c>
@@ -14205,7 +14212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5">
       <c r="A619" t="s">
         <v>720</v>
       </c>
@@ -14222,7 +14229,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5">
       <c r="A620" t="s">
         <v>469</v>
       </c>
@@ -14239,7 +14246,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5">
       <c r="A621" t="s">
         <v>722</v>
       </c>
@@ -14256,7 +14263,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5">
       <c r="A622" t="s">
         <v>723</v>
       </c>
@@ -14273,7 +14280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5">
       <c r="A623" t="s">
         <v>724</v>
       </c>
@@ -14290,7 +14297,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5">
       <c r="A624" t="s">
         <v>726</v>
       </c>
@@ -14307,7 +14314,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5">
       <c r="A625" t="s">
         <v>571</v>
       </c>
@@ -14324,7 +14331,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5">
       <c r="A626" t="s">
         <v>728</v>
       </c>
@@ -14341,7 +14348,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5">
       <c r="A627" t="s">
         <v>238</v>
       </c>
@@ -14358,7 +14365,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5">
       <c r="A628" t="s">
         <v>729</v>
       </c>
@@ -14375,7 +14382,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5">
       <c r="A629" t="s">
         <v>82</v>
       </c>
@@ -14392,7 +14399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5">
       <c r="A630" t="s">
         <v>730</v>
       </c>
@@ -14409,7 +14416,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5">
       <c r="A631" t="s">
         <v>732</v>
       </c>
@@ -14426,7 +14433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5">
       <c r="A632" t="s">
         <v>733</v>
       </c>
@@ -14443,7 +14450,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5">
       <c r="A633" t="s">
         <v>734</v>
       </c>
@@ -14460,7 +14467,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5">
       <c r="A634" t="s">
         <v>735</v>
       </c>
@@ -14477,7 +14484,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5">
       <c r="A635" t="s">
         <v>737</v>
       </c>
@@ -14494,7 +14501,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5">
       <c r="A636" t="s">
         <v>270</v>
       </c>
@@ -14511,7 +14518,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5">
       <c r="A637" t="s">
         <v>739</v>
       </c>
@@ -14528,7 +14535,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5">
       <c r="A638" t="s">
         <v>543</v>
       </c>
@@ -14545,7 +14552,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5">
       <c r="A639" t="s">
         <v>238</v>
       </c>
@@ -14562,7 +14569,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5">
       <c r="A640" t="s">
         <v>524</v>
       </c>
@@ -14579,7 +14586,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5">
       <c r="A641" t="s">
         <v>740</v>
       </c>
@@ -14596,7 +14603,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5">
       <c r="A642" t="s">
         <v>741</v>
       </c>
@@ -14613,7 +14620,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5">
       <c r="A643" t="s">
         <v>579</v>
       </c>
@@ -14630,7 +14637,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5">
       <c r="A644" t="s">
         <v>743</v>
       </c>
@@ -14647,7 +14654,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5">
       <c r="A645" t="s">
         <v>745</v>
       </c>
@@ -14664,7 +14671,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5">
       <c r="A646" t="s">
         <v>747</v>
       </c>
@@ -14681,7 +14688,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5">
       <c r="A647" t="s">
         <v>749</v>
       </c>
@@ -14698,7 +14705,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5">
       <c r="A648" t="s">
         <v>750</v>
       </c>
@@ -14715,7 +14722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5">
       <c r="A649" t="s">
         <v>751</v>
       </c>
@@ -14732,7 +14739,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5">
       <c r="A650" t="s">
         <v>753</v>
       </c>
@@ -14749,7 +14756,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5">
       <c r="A651" t="s">
         <v>429</v>
       </c>
@@ -14766,7 +14773,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5">
       <c r="A652" t="s">
         <v>358</v>
       </c>
@@ -14783,7 +14790,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5">
       <c r="A653" t="s">
         <v>754</v>
       </c>
@@ -14800,7 +14807,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5">
       <c r="A654" t="s">
         <v>298</v>
       </c>
@@ -14817,7 +14824,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5">
       <c r="A655" t="s">
         <v>755</v>
       </c>
@@ -14834,7 +14841,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5">
       <c r="A656" t="s">
         <v>756</v>
       </c>
@@ -14851,7 +14858,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5">
       <c r="A657" t="s">
         <v>758</v>
       </c>
@@ -14868,7 +14875,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5">
       <c r="A658" t="s">
         <v>559</v>
       </c>
@@ -14885,7 +14892,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5">
       <c r="A659" t="s">
         <v>579</v>
       </c>
@@ -14902,7 +14909,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5">
       <c r="A660" t="s">
         <v>493</v>
       </c>
@@ -14919,7 +14926,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5">
       <c r="A661" t="s">
         <v>239</v>
       </c>
@@ -14936,7 +14943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5">
       <c r="A662" t="s">
         <v>235</v>
       </c>
@@ -14953,7 +14960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5">
       <c r="A663" t="s">
         <v>627</v>
       </c>
@@ -14970,7 +14977,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5">
       <c r="A664" t="s">
         <v>759</v>
       </c>
@@ -14987,7 +14994,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5">
       <c r="A665" t="s">
         <v>760</v>
       </c>
@@ -15004,7 +15011,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5">
       <c r="A666" t="s">
         <v>762</v>
       </c>
@@ -15021,7 +15028,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5">
       <c r="A667" t="s">
         <v>764</v>
       </c>
@@ -15038,7 +15045,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5">
       <c r="A668" t="s">
         <v>358</v>
       </c>
@@ -15055,7 +15062,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5">
       <c r="A669" t="s">
         <v>765</v>
       </c>
@@ -15072,7 +15079,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5">
       <c r="A670" t="s">
         <v>486</v>
       </c>
@@ -15089,7 +15096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5">
       <c r="A671" t="s">
         <v>767</v>
       </c>
@@ -15106,7 +15113,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5">
       <c r="A672" t="s">
         <v>768</v>
       </c>
@@ -15123,7 +15130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5">
       <c r="A673" t="s">
         <v>690</v>
       </c>
@@ -15140,7 +15147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5">
       <c r="A674" t="s">
         <v>769</v>
       </c>
@@ -15157,7 +15164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5">
       <c r="A675" t="s">
         <v>420</v>
       </c>
@@ -15174,7 +15181,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5">
       <c r="A676" t="s">
         <v>770</v>
       </c>
@@ -15191,7 +15198,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5">
       <c r="A677" t="s">
         <v>772</v>
       </c>
@@ -15208,7 +15215,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5">
       <c r="A678" t="s">
         <v>773</v>
       </c>
@@ -15225,7 +15232,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5">
       <c r="A679" t="s">
         <v>120</v>
       </c>
@@ -15242,7 +15249,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5">
       <c r="A680" t="s">
         <v>774</v>
       </c>
@@ -15259,7 +15266,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5">
       <c r="A681" t="s">
         <v>776</v>
       </c>
@@ -15276,7 +15283,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5">
       <c r="A682" t="s">
         <v>777</v>
       </c>
@@ -15293,7 +15300,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5">
       <c r="A683" t="s">
         <v>778</v>
       </c>
@@ -15310,7 +15317,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5">
       <c r="A684" t="s">
         <v>780</v>
       </c>
@@ -15327,7 +15334,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5">
       <c r="A685" t="s">
         <v>782</v>
       </c>
@@ -15344,7 +15351,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5">
       <c r="A686" t="s">
         <v>783</v>
       </c>
@@ -15361,7 +15368,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5">
       <c r="A687" t="s">
         <v>785</v>
       </c>
@@ -15378,7 +15385,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5">
       <c r="A688" t="s">
         <v>786</v>
       </c>
@@ -15395,7 +15402,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5">
       <c r="A689" t="s">
         <v>788</v>
       </c>
@@ -15412,7 +15419,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5">
       <c r="A690" t="s">
         <v>693</v>
       </c>
@@ -15429,7 +15436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5">
       <c r="A691" t="s">
         <v>434</v>
       </c>
@@ -15446,7 +15453,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5">
       <c r="A692" t="s">
         <v>680</v>
       </c>
@@ -15463,7 +15470,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5">
       <c r="A693" t="s">
         <v>790</v>
       </c>
@@ -15480,7 +15487,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5">
       <c r="A694" t="s">
         <v>792</v>
       </c>
@@ -15497,7 +15504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5">
       <c r="A695" t="s">
         <v>432</v>
       </c>
@@ -15514,7 +15521,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5">
       <c r="A696" t="s">
         <v>793</v>
       </c>
@@ -15531,7 +15538,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5">
       <c r="A697" t="s">
         <v>794</v>
       </c>
@@ -15548,7 +15555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5">
       <c r="A698" t="s">
         <v>552</v>
       </c>
@@ -15565,7 +15572,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5">
       <c r="A699" t="s">
         <v>795</v>
       </c>
@@ -15582,7 +15589,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5">
       <c r="A700" t="s">
         <v>797</v>
       </c>
@@ -15599,7 +15606,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5">
       <c r="A701" t="s">
         <v>798</v>
       </c>
@@ -15616,7 +15623,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5">
       <c r="A702" t="s">
         <v>799</v>
       </c>
@@ -15633,7 +15640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5">
       <c r="A703" t="s">
         <v>800</v>
       </c>
@@ -15650,7 +15657,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5">
       <c r="A704" t="s">
         <v>801</v>
       </c>
@@ -15667,7 +15674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5">
       <c r="A705" t="s">
         <v>403</v>
       </c>
@@ -15684,7 +15691,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5">
       <c r="A706" t="s">
         <v>235</v>
       </c>
@@ -15701,7 +15708,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5">
       <c r="A707" t="s">
         <v>802</v>
       </c>
@@ -15718,7 +15725,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5">
       <c r="A708" t="s">
         <v>491</v>
       </c>
@@ -15735,7 +15742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5">
       <c r="A709" t="s">
         <v>804</v>
       </c>
@@ -15752,7 +15759,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5">
       <c r="A710" t="s">
         <v>805</v>
       </c>
@@ -15769,7 +15776,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5">
       <c r="A711" t="s">
         <v>806</v>
       </c>
@@ -15786,7 +15793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5">
       <c r="A712" t="s">
         <v>807</v>
       </c>
@@ -15803,7 +15810,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5">
       <c r="A713" t="s">
         <v>808</v>
       </c>
@@ -15820,7 +15827,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5">
       <c r="A714" t="s">
         <v>810</v>
       </c>
@@ -15837,7 +15844,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5">
       <c r="A715" t="s">
         <v>398</v>
       </c>
@@ -15854,7 +15861,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5">
       <c r="A716" t="s">
         <v>812</v>
       </c>
@@ -15871,7 +15878,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5">
       <c r="A717" t="s">
         <v>814</v>
       </c>
@@ -15888,7 +15895,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5">
       <c r="A718" t="s">
         <v>235</v>
       </c>
@@ -15905,7 +15912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5">
       <c r="A719" t="s">
         <v>815</v>
       </c>
@@ -15922,7 +15929,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5">
       <c r="A720" t="s">
         <v>538</v>
       </c>
@@ -15939,7 +15946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5">
       <c r="A721" t="s">
         <v>769</v>
       </c>
@@ -15956,7 +15963,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5">
       <c r="A722" t="s">
         <v>816</v>
       </c>
@@ -15973,7 +15980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5">
       <c r="A723" t="s">
         <v>817</v>
       </c>
@@ -15990,7 +15997,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5">
       <c r="A724" t="s">
         <v>391</v>
       </c>
@@ -16007,7 +16014,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5">
       <c r="A725" t="s">
         <v>80</v>
       </c>
@@ -16024,7 +16031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5">
       <c r="A726" t="s">
         <v>120</v>
       </c>
@@ -16041,7 +16048,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5">
       <c r="A727" t="s">
         <v>818</v>
       </c>
@@ -16058,7 +16065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5">
       <c r="A728" t="s">
         <v>819</v>
       </c>
@@ -16075,7 +16082,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5">
       <c r="A729" t="s">
         <v>821</v>
       </c>
@@ -16092,7 +16099,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5">
       <c r="A730" t="s">
         <v>823</v>
       </c>
@@ -16109,7 +16116,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5">
       <c r="A731" t="s">
         <v>825</v>
       </c>
@@ -16126,7 +16133,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5">
       <c r="A732" t="s">
         <v>826</v>
       </c>
@@ -16143,7 +16150,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5">
       <c r="A733" t="s">
         <v>579</v>
       </c>
@@ -16160,7 +16167,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5">
       <c r="A734" t="s">
         <v>828</v>
       </c>
@@ -16177,7 +16184,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5">
       <c r="A735" t="s">
         <v>830</v>
       </c>
@@ -16194,7 +16201,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5">
       <c r="A736" t="s">
         <v>566</v>
       </c>
@@ -16211,7 +16218,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5">
       <c r="A737" t="s">
         <v>538</v>
       </c>
@@ -16228,7 +16235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5">
       <c r="A738" t="s">
         <v>832</v>
       </c>
@@ -16245,7 +16252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5">
       <c r="A739" t="s">
         <v>482</v>
       </c>
@@ -16262,7 +16269,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5">
       <c r="A740" t="s">
         <v>833</v>
       </c>
@@ -16279,7 +16286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5">
       <c r="A741" t="s">
         <v>561</v>
       </c>
@@ -16296,7 +16303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5">
       <c r="A742" t="s">
         <v>834</v>
       </c>
@@ -16313,7 +16320,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5">
       <c r="A743" t="s">
         <v>835</v>
       </c>
@@ -16330,7 +16337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5">
       <c r="A744" t="s">
         <v>836</v>
       </c>
@@ -16347,7 +16354,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5">
       <c r="A745" t="s">
         <v>837</v>
       </c>
@@ -16364,7 +16371,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5">
       <c r="A746" t="s">
         <v>838</v>
       </c>
@@ -16381,7 +16388,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5">
       <c r="A747" t="s">
         <v>839</v>
       </c>
@@ -16398,7 +16405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5">
       <c r="A748" t="s">
         <v>840</v>
       </c>
@@ -16415,7 +16422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5">
       <c r="A749" t="s">
         <v>534</v>
       </c>
@@ -16432,7 +16439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5">
       <c r="A750" t="s">
         <v>841</v>
       </c>
@@ -16449,7 +16456,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5">
       <c r="A751" t="s">
         <v>842</v>
       </c>
@@ -16466,7 +16473,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5">
       <c r="A752" t="s">
         <v>843</v>
       </c>
@@ -16483,7 +16490,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5">
       <c r="A753" t="s">
         <v>845</v>
       </c>
@@ -16500,7 +16507,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5">
       <c r="A754" t="s">
         <v>847</v>
       </c>
@@ -16517,7 +16524,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5">
       <c r="A755" t="s">
         <v>848</v>
       </c>
@@ -16534,7 +16541,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5">
       <c r="A756" t="s">
         <v>850</v>
       </c>
@@ -16551,7 +16558,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5">
       <c r="A757" t="s">
         <v>851</v>
       </c>
@@ -16568,7 +16575,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5">
       <c r="A758" t="s">
         <v>565</v>
       </c>
@@ -16585,7 +16592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5">
       <c r="A759" t="s">
         <v>685</v>
       </c>
@@ -16602,7 +16609,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5">
       <c r="A760" t="s">
         <v>852</v>
       </c>
@@ -16619,7 +16626,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5">
       <c r="A761" t="s">
         <v>853</v>
       </c>
@@ -16636,7 +16643,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5">
       <c r="A762" t="s">
         <v>539</v>
       </c>
@@ -16653,7 +16660,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5">
       <c r="A763" t="s">
         <v>855</v>
       </c>
@@ -16670,7 +16677,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5">
       <c r="A764" t="s">
         <v>834</v>
       </c>
@@ -16687,7 +16694,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5">
       <c r="A765" t="s">
         <v>649</v>
       </c>
@@ -16704,7 +16711,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5">
       <c r="A766" t="s">
         <v>856</v>
       </c>
@@ -16721,7 +16728,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5">
       <c r="A767" t="s">
         <v>858</v>
       </c>
@@ -16738,7 +16745,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5">
       <c r="A768" t="s">
         <v>859</v>
       </c>
@@ -16755,7 +16762,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5">
       <c r="A769" t="s">
         <v>547</v>
       </c>
@@ -16772,7 +16779,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5">
       <c r="A770" t="s">
         <v>860</v>
       </c>
@@ -16789,7 +16796,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5">
       <c r="A771" t="s">
         <v>861</v>
       </c>
@@ -16806,7 +16813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5">
       <c r="A772" t="s">
         <v>862</v>
       </c>
@@ -16823,7 +16830,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5">
       <c r="A773" t="s">
         <v>864</v>
       </c>
@@ -16840,7 +16847,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5">
       <c r="A774" t="s">
         <v>865</v>
       </c>
@@ -16857,7 +16864,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5">
       <c r="A775" t="s">
         <v>867</v>
       </c>
@@ -16874,7 +16881,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5">
       <c r="A776" t="s">
         <v>566</v>
       </c>
@@ -16891,7 +16898,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5">
       <c r="A777" t="s">
         <v>868</v>
       </c>
@@ -16908,7 +16915,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5">
       <c r="A778" t="s">
         <v>533</v>
       </c>
@@ -16925,7 +16932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5">
       <c r="A779" t="s">
         <v>869</v>
       </c>
@@ -16942,7 +16949,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5">
       <c r="A780" t="s">
         <v>870</v>
       </c>
@@ -16959,7 +16966,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5">
       <c r="A781" t="s">
         <v>871</v>
       </c>
@@ -16976,7 +16983,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5">
       <c r="A782" t="s">
         <v>689</v>
       </c>
@@ -16993,7 +17000,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5">
       <c r="A783" t="s">
         <v>872</v>
       </c>
@@ -17010,7 +17017,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5">
       <c r="A784" t="s">
         <v>873</v>
       </c>
@@ -17027,7 +17034,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5">
       <c r="A785" t="s">
         <v>874</v>
       </c>
@@ -17044,7 +17051,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5">
       <c r="A786" t="s">
         <v>875</v>
       </c>
@@ -17061,7 +17068,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5">
       <c r="A787" t="s">
         <v>601</v>
       </c>
@@ -17078,7 +17085,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5">
       <c r="A788" t="s">
         <v>462</v>
       </c>
@@ -17095,7 +17102,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5">
       <c r="A789" t="s">
         <v>557</v>
       </c>
@@ -17112,7 +17119,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5">
       <c r="A790" t="s">
         <v>596</v>
       </c>
@@ -17129,7 +17136,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5">
       <c r="A791" t="s">
         <v>627</v>
       </c>
@@ -17146,7 +17153,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5">
       <c r="A792" t="s">
         <v>464</v>
       </c>
@@ -17163,7 +17170,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5">
       <c r="A793" t="s">
         <v>540</v>
       </c>
@@ -17180,7 +17187,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5">
       <c r="A794" t="s">
         <v>877</v>
       </c>
@@ -17197,7 +17204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5">
       <c r="A795" t="s">
         <v>621</v>
       </c>
@@ -17214,7 +17221,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5">
       <c r="A796" t="s">
         <v>486</v>
       </c>
@@ -17231,7 +17238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5">
       <c r="A797" t="s">
         <v>160</v>
       </c>
@@ -17248,7 +17255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5">
       <c r="A798" t="s">
         <v>138</v>
       </c>
@@ -17265,7 +17272,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5">
       <c r="A799" t="s">
         <v>136</v>
       </c>
@@ -17282,7 +17289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5">
       <c r="A800" t="s">
         <v>247</v>
       </c>
@@ -17299,7 +17306,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5">
       <c r="A801" t="s">
         <v>878</v>
       </c>
@@ -17316,7 +17323,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5">
       <c r="A802" t="s">
         <v>136</v>
       </c>
@@ -17333,7 +17340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5">
       <c r="A803" t="s">
         <v>840</v>
       </c>
@@ -17350,7 +17357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5">
       <c r="A804" t="s">
         <v>516</v>
       </c>
@@ -17367,7 +17374,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5">
       <c r="A805" t="s">
         <v>764</v>
       </c>
@@ -17384,7 +17391,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5">
       <c r="A806" t="s">
         <v>298</v>
       </c>
@@ -17401,7 +17408,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5">
       <c r="A807" t="s">
         <v>537</v>
       </c>
@@ -17418,7 +17425,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5">
       <c r="A808" t="s">
         <v>879</v>
       </c>
@@ -17435,7 +17442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5">
       <c r="A809" t="s">
         <v>566</v>
       </c>
@@ -17452,7 +17459,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5">
       <c r="A810" t="s">
         <v>880</v>
       </c>
@@ -17469,7 +17476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5">
       <c r="A811" t="s">
         <v>881</v>
       </c>
@@ -17486,7 +17493,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5">
       <c r="A812" t="s">
         <v>882</v>
       </c>
@@ -17503,7 +17510,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5">
       <c r="A813" t="s">
         <v>700</v>
       </c>
@@ -17520,7 +17527,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5">
       <c r="A814" t="s">
         <v>590</v>
       </c>
@@ -17537,7 +17544,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5">
       <c r="A815" t="s">
         <v>883</v>
       </c>
@@ -17554,7 +17561,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5">
       <c r="A816" t="s">
         <v>455</v>
       </c>
@@ -17571,7 +17578,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5">
       <c r="A817" t="s">
         <v>884</v>
       </c>
@@ -17588,7 +17595,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5">
       <c r="A818" t="s">
         <v>486</v>
       </c>
@@ -17605,7 +17612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5">
       <c r="A819" t="s">
         <v>885</v>
       </c>
@@ -17622,7 +17629,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5">
       <c r="A820" t="s">
         <v>406</v>
       </c>
@@ -17639,7 +17646,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5">
       <c r="A821" t="s">
         <v>510</v>
       </c>
@@ -17656,7 +17663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5">
       <c r="A822" t="s">
         <v>887</v>
       </c>
@@ -17673,7 +17680,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5">
       <c r="A823" t="s">
         <v>856</v>
       </c>
@@ -17690,7 +17697,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5">
       <c r="A824" t="s">
         <v>888</v>
       </c>
@@ -17707,7 +17714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5">
       <c r="A825" t="s">
         <v>889</v>
       </c>
@@ -17724,7 +17731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5">
       <c r="A826" t="s">
         <v>890</v>
       </c>
@@ -17741,7 +17748,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5">
       <c r="A827" t="s">
         <v>432</v>
       </c>
@@ -17758,7 +17765,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5">
       <c r="A828" t="s">
         <v>892</v>
       </c>
@@ -17775,7 +17782,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5">
       <c r="A829" t="s">
         <v>589</v>
       </c>
@@ -17792,7 +17799,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5">
       <c r="A830" t="s">
         <v>893</v>
       </c>
@@ -17809,7 +17816,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5">
       <c r="A831" t="s">
         <v>894</v>
       </c>
@@ -17826,7 +17833,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5">
       <c r="A832" t="s">
         <v>627</v>
       </c>
@@ -17843,7 +17850,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5">
       <c r="A833" t="s">
         <v>431</v>
       </c>
@@ -17860,7 +17867,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5">
       <c r="A834" t="s">
         <v>569</v>
       </c>
@@ -17877,7 +17884,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5">
       <c r="A835" t="s">
         <v>553</v>
       </c>
@@ -17894,7 +17901,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5">
       <c r="A836" t="s">
         <v>895</v>
       </c>
@@ -17911,7 +17918,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5">
       <c r="A837" t="s">
         <v>703</v>
       </c>
@@ -17928,7 +17935,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5">
       <c r="A838" t="s">
         <v>566</v>
       </c>
@@ -17945,7 +17952,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5">
       <c r="A839" t="s">
         <v>896</v>
       </c>
@@ -17962,7 +17969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5">
       <c r="A840" t="s">
         <v>897</v>
       </c>
@@ -17979,7 +17986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5">
       <c r="A841" t="s">
         <v>195</v>
       </c>
@@ -17996,7 +18003,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5">
       <c r="A842" t="s">
         <v>898</v>
       </c>
@@ -18013,7 +18020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5">
       <c r="A843" t="s">
         <v>899</v>
       </c>
@@ -18030,7 +18037,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5">
       <c r="A844" t="s">
         <v>901</v>
       </c>
@@ -18047,7 +18054,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5">
       <c r="A845" t="s">
         <v>902</v>
       </c>
@@ -18064,7 +18071,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5">
       <c r="A846" t="s">
         <v>903</v>
       </c>
@@ -18081,7 +18088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5">
       <c r="A847" t="s">
         <v>904</v>
       </c>
@@ -18098,7 +18105,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5">
       <c r="A848" t="s">
         <v>230</v>
       </c>
@@ -18115,7 +18122,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5">
       <c r="A849" t="s">
         <v>358</v>
       </c>
@@ -18132,7 +18139,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5">
       <c r="A850" t="s">
         <v>905</v>
       </c>
@@ -18149,7 +18156,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5">
       <c r="A851" t="s">
         <v>906</v>
       </c>
@@ -18166,7 +18173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5">
       <c r="A852" t="s">
         <v>907</v>
       </c>
@@ -18183,7 +18190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5">
       <c r="A853" t="s">
         <v>495</v>
       </c>
@@ -18200,7 +18207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5">
       <c r="A854" t="s">
         <v>908</v>
       </c>
@@ -18217,7 +18224,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5">
       <c r="A855" t="s">
         <v>233</v>
       </c>
@@ -18234,7 +18241,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5">
       <c r="A856" t="s">
         <v>910</v>
       </c>
@@ -18251,7 +18258,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5">
       <c r="A857" t="s">
         <v>911</v>
       </c>
@@ -18268,7 +18275,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5">
       <c r="A858" t="s">
         <v>913</v>
       </c>
@@ -18285,7 +18292,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5">
       <c r="A859" t="s">
         <v>517</v>
       </c>
@@ -18302,7 +18309,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5">
       <c r="A860" t="s">
         <v>914</v>
       </c>
@@ -18319,7 +18326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5">
       <c r="A861" t="s">
         <v>834</v>
       </c>
@@ -18336,7 +18343,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5">
       <c r="A862" t="s">
         <v>915</v>
       </c>
@@ -18353,7 +18360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5">
       <c r="A863" t="s">
         <v>840</v>
       </c>
@@ -18370,7 +18377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5">
       <c r="A864" t="s">
         <v>916</v>
       </c>
@@ -18387,7 +18394,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5">
       <c r="A865" t="s">
         <v>917</v>
       </c>
@@ -18404,7 +18411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5">
       <c r="A866" t="s">
         <v>918</v>
       </c>
@@ -18421,7 +18428,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5">
       <c r="A867" t="s">
         <v>919</v>
       </c>
@@ -18438,7 +18445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5">
       <c r="A868" t="s">
         <v>920</v>
       </c>
@@ -18455,7 +18462,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5">
       <c r="A869" t="s">
         <v>78</v>
       </c>
@@ -18472,7 +18479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5">
       <c r="A870" t="s">
         <v>921</v>
       </c>
@@ -18489,7 +18496,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5">
       <c r="A871" t="s">
         <v>389</v>
       </c>
@@ -18506,7 +18513,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5">
       <c r="A872" t="s">
         <v>579</v>
       </c>
@@ -18523,7 +18530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5">
       <c r="A873" t="s">
         <v>922</v>
       </c>
@@ -18540,7 +18547,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5">
       <c r="A874" t="s">
         <v>805</v>
       </c>
@@ -18557,7 +18564,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5">
       <c r="A875" t="s">
         <v>492</v>
       </c>
@@ -18574,7 +18581,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5">
       <c r="A876" t="s">
         <v>923</v>
       </c>
@@ -18591,7 +18598,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5">
       <c r="A877" t="s">
         <v>924</v>
       </c>
@@ -18608,7 +18615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5">
       <c r="A878" t="s">
         <v>925</v>
       </c>
@@ -18625,7 +18632,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5">
       <c r="A879" t="s">
         <v>425</v>
       </c>
@@ -18642,7 +18649,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5">
       <c r="A880" t="s">
         <v>223</v>
       </c>
@@ -18659,7 +18666,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5">
       <c r="A881" t="s">
         <v>926</v>
       </c>
@@ -18676,7 +18683,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5">
       <c r="A882" t="s">
         <v>927</v>
       </c>
@@ -18693,7 +18700,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5">
       <c r="A883" t="s">
         <v>408</v>
       </c>
@@ -18710,7 +18717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5">
       <c r="A884" t="s">
         <v>556</v>
       </c>
@@ -18727,7 +18734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5">
       <c r="A885" t="s">
         <v>535</v>
       </c>
@@ -18744,7 +18751,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5">
       <c r="A886" t="s">
         <v>131</v>
       </c>
@@ -18761,7 +18768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5">
       <c r="A887" t="s">
         <v>928</v>
       </c>
@@ -18778,7 +18785,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5">
       <c r="A888" t="s">
         <v>929</v>
       </c>
@@ -18795,7 +18802,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5">
       <c r="A889" t="s">
         <v>552</v>
       </c>
@@ -18812,7 +18819,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5">
       <c r="A890" t="s">
         <v>931</v>
       </c>
@@ -18829,7 +18836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5">
       <c r="A891" t="s">
         <v>932</v>
       </c>
@@ -18846,7 +18853,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5">
       <c r="A892" t="s">
         <v>933</v>
       </c>
@@ -18863,7 +18870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5">
       <c r="A893" t="s">
         <v>934</v>
       </c>
@@ -18880,7 +18887,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5">
       <c r="A894" t="s">
         <v>935</v>
       </c>
@@ -18897,7 +18904,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5">
       <c r="A895" t="s">
         <v>936</v>
       </c>
@@ -18914,7 +18921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5">
       <c r="A896" t="s">
         <v>937</v>
       </c>
@@ -18931,7 +18938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5">
       <c r="A897" t="s">
         <v>938</v>
       </c>
@@ -18948,7 +18955,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5">
       <c r="A898" t="s">
         <v>939</v>
       </c>
@@ -18965,7 +18972,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5">
       <c r="A899" t="s">
         <v>940</v>
       </c>
@@ -18982,7 +18989,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5">
       <c r="A900" t="s">
         <v>941</v>
       </c>
@@ -18999,7 +19006,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5">
       <c r="A901" t="s">
         <v>455</v>
       </c>
@@ -19016,7 +19023,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5">
       <c r="A902" t="s">
         <v>942</v>
       </c>
@@ -19033,7 +19040,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5">
       <c r="A903" t="s">
         <v>525</v>
       </c>
@@ -19050,7 +19057,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5">
       <c r="A904" t="s">
         <v>943</v>
       </c>
@@ -19067,7 +19074,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5">
       <c r="A905" t="s">
         <v>944</v>
       </c>
@@ -19084,7 +19091,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5">
       <c r="A906" t="s">
         <v>945</v>
       </c>
@@ -19101,7 +19108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5">
       <c r="A907" t="s">
         <v>946</v>
       </c>
@@ -19118,7 +19125,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5">
       <c r="A908" t="s">
         <v>160</v>
       </c>
@@ -19135,7 +19142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5">
       <c r="A909" t="s">
         <v>540</v>
       </c>
@@ -19152,7 +19159,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5">
       <c r="A910" t="s">
         <v>116</v>
       </c>
@@ -19169,7 +19176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5">
       <c r="A911" t="s">
         <v>947</v>
       </c>
@@ -19188,5 +19195,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>